--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -6177,28 +6177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9601.50646023998</v>
+        <v>9784.440469445151</v>
       </c>
       <c r="AB2" t="n">
-        <v>13137.20472747074</v>
+        <v>13387.50310934417</v>
       </c>
       <c r="AC2" t="n">
-        <v>11883.40834646307</v>
+        <v>12109.81860206648</v>
       </c>
       <c r="AD2" t="n">
-        <v>9601506.46023998</v>
+        <v>9784440.469445152</v>
       </c>
       <c r="AE2" t="n">
-        <v>13137204.72747074</v>
+        <v>13387503.10934417</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.149720290940398e-07</v>
+        <v>9.528330809318718e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.51041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>11883408.34646307</v>
+        <v>12109818.60206648</v>
       </c>
     </row>
     <row r="3">
@@ -6283,28 +6283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3198.334267867734</v>
+        <v>3295.899072777159</v>
       </c>
       <c r="AB3" t="n">
-        <v>4376.102045846405</v>
+        <v>4509.594516178902</v>
       </c>
       <c r="AC3" t="n">
-        <v>3958.453008488455</v>
+        <v>4079.205144810272</v>
       </c>
       <c r="AD3" t="n">
-        <v>3198334.267867734</v>
+        <v>3295899.07277716</v>
       </c>
       <c r="AE3" t="n">
-        <v>4376102.045846405</v>
+        <v>4509594.516178902</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.701314429108685e-07</v>
+        <v>1.794997163795169e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.66458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3958453.008488455</v>
+        <v>4079205.144810272</v>
       </c>
     </row>
     <row r="4">
@@ -6389,28 +6389,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2465.775292961091</v>
+        <v>2550.973905056246</v>
       </c>
       <c r="AB4" t="n">
-        <v>3373.782538158011</v>
+        <v>3490.3550379241</v>
       </c>
       <c r="AC4" t="n">
-        <v>3051.793467849615</v>
+        <v>3157.240451848554</v>
       </c>
       <c r="AD4" t="n">
-        <v>2465775.292961091</v>
+        <v>2550973.905056246</v>
       </c>
       <c r="AE4" t="n">
-        <v>3373782.538158011</v>
+        <v>3490355.0379241</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.136439690267017e-06</v>
+        <v>2.102710963302913e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.371875</v>
       </c>
       <c r="AH4" t="n">
-        <v>3051793.467849615</v>
+        <v>3157240.451848554</v>
       </c>
     </row>
     <row r="5">
@@ -6495,28 +6495,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2178.870529275128</v>
+        <v>2251.958881611179</v>
       </c>
       <c r="AB5" t="n">
-        <v>2981.226783137819</v>
+        <v>3081.229491234717</v>
       </c>
       <c r="AC5" t="n">
-        <v>2696.702683133215</v>
+        <v>2787.161273123912</v>
       </c>
       <c r="AD5" t="n">
-        <v>2178870.529275128</v>
+        <v>2251958.881611179</v>
       </c>
       <c r="AE5" t="n">
-        <v>2981226.783137819</v>
+        <v>3081229.491234717</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.224262115625264e-06</v>
+        <v>2.265205443393844e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.4125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2696702.683133215</v>
+        <v>2787161.273123912</v>
       </c>
     </row>
     <row r="6">
@@ -6601,28 +6601,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2017.021442720175</v>
+        <v>2102.219965306779</v>
       </c>
       <c r="AB6" t="n">
-        <v>2759.777722635571</v>
+        <v>2876.350099932104</v>
       </c>
       <c r="AC6" t="n">
-        <v>2496.388410159593</v>
+        <v>2601.835283377303</v>
       </c>
       <c r="AD6" t="n">
-        <v>2017021.442720175</v>
+        <v>2102219.965306779</v>
       </c>
       <c r="AE6" t="n">
-        <v>2759777.722635571</v>
+        <v>2876350.099932104</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.278822891512282e-06</v>
+        <v>2.366157163583227e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.88333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2496388.410159593</v>
+        <v>2601835.283377303</v>
       </c>
     </row>
     <row r="7">
@@ -6707,28 +6707,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1919.55279899717</v>
+        <v>1992.726402679239</v>
       </c>
       <c r="AB7" t="n">
-        <v>2626.416824280674</v>
+        <v>2726.536177030041</v>
       </c>
       <c r="AC7" t="n">
-        <v>2375.75528877049</v>
+        <v>2466.319391011852</v>
       </c>
       <c r="AD7" t="n">
-        <v>1919552.79899717</v>
+        <v>1992726.402679239</v>
       </c>
       <c r="AE7" t="n">
-        <v>2626416.824280674</v>
+        <v>2726536.17703004</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.316606958236178e-06</v>
+        <v>2.436067579436301e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.54270833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2375755.28877049</v>
+        <v>2466319.391011852</v>
       </c>
     </row>
     <row r="8">
@@ -6813,28 +6813,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1851.657411727942</v>
+        <v>1924.660423209418</v>
       </c>
       <c r="AB8" t="n">
-        <v>2533.519360085829</v>
+        <v>2633.405301060349</v>
       </c>
       <c r="AC8" t="n">
-        <v>2291.723828175991</v>
+        <v>2382.076795134701</v>
       </c>
       <c r="AD8" t="n">
-        <v>1851657.411727942</v>
+        <v>1924660.423209418</v>
       </c>
       <c r="AE8" t="n">
-        <v>2533519.360085829</v>
+        <v>2633405.301060349</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.34315792404216e-06</v>
+        <v>2.485193817603327e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.31458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2291723.828175991</v>
+        <v>2382076.795134701</v>
       </c>
     </row>
     <row r="9">
@@ -6919,28 +6919,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1799.562054319146</v>
+        <v>1860.540146896088</v>
       </c>
       <c r="AB9" t="n">
-        <v>2462.240193794151</v>
+        <v>2545.673110221505</v>
       </c>
       <c r="AC9" t="n">
-        <v>2227.247445474253</v>
+        <v>2302.717641456614</v>
       </c>
       <c r="AD9" t="n">
-        <v>1799562.054319146</v>
+        <v>1860540.146896088</v>
       </c>
       <c r="AE9" t="n">
-        <v>2462240.193794151</v>
+        <v>2545673.110221505</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.363581743892915e-06</v>
+        <v>2.522983231577962e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.14375</v>
       </c>
       <c r="AH9" t="n">
-        <v>2227247.445474253</v>
+        <v>2302717.641456614</v>
       </c>
     </row>
     <row r="10">
@@ -7025,28 +7025,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1755.528006139807</v>
+        <v>1816.506098716749</v>
       </c>
       <c r="AB10" t="n">
-        <v>2401.990866430079</v>
+        <v>2485.423782857433</v>
       </c>
       <c r="AC10" t="n">
-        <v>2172.748229353346</v>
+        <v>2248.218425335707</v>
       </c>
       <c r="AD10" t="n">
-        <v>1755528.006139807</v>
+        <v>1816506.098716749</v>
       </c>
       <c r="AE10" t="n">
-        <v>2401990.866430079</v>
+        <v>2485423.782857433</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.380504337483541e-06</v>
+        <v>2.554294460299803e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.00729166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2172748.229353346</v>
+        <v>2248218.425335707</v>
       </c>
     </row>
     <row r="11">
@@ -7131,28 +7131,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1701.009988818003</v>
+        <v>1774.0982516455</v>
       </c>
       <c r="AB11" t="n">
-        <v>2327.39690996521</v>
+        <v>2427.399495592379</v>
       </c>
       <c r="AC11" t="n">
-        <v>2105.273415400209</v>
+        <v>2195.731894609632</v>
       </c>
       <c r="AD11" t="n">
-        <v>1701009.988818003</v>
+        <v>1774098.2516455</v>
       </c>
       <c r="AE11" t="n">
-        <v>2327396.90996521</v>
+        <v>2427399.495592379</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.395676317944102e-06</v>
+        <v>2.582366596395246e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.88854166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2105273.415400209</v>
+        <v>2195731.894609632</v>
       </c>
     </row>
     <row r="12">
@@ -7237,28 +7237,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1696.020952649204</v>
+        <v>1769.109215476702</v>
       </c>
       <c r="AB12" t="n">
-        <v>2320.570690578319</v>
+        <v>2420.573276205488</v>
       </c>
       <c r="AC12" t="n">
-        <v>2099.098680810943</v>
+        <v>2189.557160020366</v>
       </c>
       <c r="AD12" t="n">
-        <v>1696020.952649205</v>
+        <v>1769109.215476702</v>
       </c>
       <c r="AE12" t="n">
-        <v>2320570.690578319</v>
+        <v>2420573.276205488</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.395968086799113e-06</v>
+        <v>2.582906445166312e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.88645833333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>2099098.680810943</v>
+        <v>2189557.160020366</v>
       </c>
     </row>
     <row r="13">
@@ -7343,28 +7343,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1652.142283824371</v>
+        <v>1725.230546651869</v>
       </c>
       <c r="AB13" t="n">
-        <v>2260.533960101935</v>
+        <v>2360.536545729105</v>
       </c>
       <c r="AC13" t="n">
-        <v>2044.791771629145</v>
+        <v>2135.250250838568</v>
       </c>
       <c r="AD13" t="n">
-        <v>1652142.283824371</v>
+        <v>1725230.546651869</v>
       </c>
       <c r="AE13" t="n">
-        <v>2260533.960101935</v>
+        <v>2360536.545729104</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.41157772054219e-06</v>
+        <v>2.611788354418355e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.765625</v>
       </c>
       <c r="AH13" t="n">
-        <v>2044791.771629145</v>
+        <v>2135250.250838568</v>
       </c>
     </row>
     <row r="14">
@@ -7449,28 +7449,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1627.420531605023</v>
+        <v>1700.50879443252</v>
       </c>
       <c r="AB14" t="n">
-        <v>2226.708568068688</v>
+        <v>2326.711153695857</v>
       </c>
       <c r="AC14" t="n">
-        <v>2014.194627537315</v>
+        <v>2104.653106746738</v>
       </c>
       <c r="AD14" t="n">
-        <v>1627420.531605023</v>
+        <v>1700508.79443252</v>
       </c>
       <c r="AE14" t="n">
-        <v>2226708.568068688</v>
+        <v>2326711.153695857</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.41887194191746e-06</v>
+        <v>2.62528457369501e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.71041666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>2014194.627537315</v>
+        <v>2104653.106746738</v>
       </c>
     </row>
     <row r="15">
@@ -7555,28 +7555,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1602.918167633369</v>
+        <v>1676.006430460866</v>
       </c>
       <c r="AB15" t="n">
-        <v>2193.183352714663</v>
+        <v>2293.185938341832</v>
       </c>
       <c r="AC15" t="n">
-        <v>1983.869011683743</v>
+        <v>2074.327490893166</v>
       </c>
       <c r="AD15" t="n">
-        <v>1602918.167633368</v>
+        <v>1676006.430460866</v>
       </c>
       <c r="AE15" t="n">
-        <v>2193183.352714663</v>
+        <v>2293185.938341832</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.426166163292729e-06</v>
+        <v>2.638780792971666e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.65520833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1983869.011683743</v>
+        <v>2074327.490893166</v>
       </c>
     </row>
     <row r="16">
@@ -7661,28 +7661,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1580.078934715011</v>
+        <v>1653.167197542508</v>
       </c>
       <c r="AB16" t="n">
-        <v>2161.933706639922</v>
+        <v>2261.936292267092</v>
       </c>
       <c r="AC16" t="n">
-        <v>1955.601787971222</v>
+        <v>2046.060267180645</v>
       </c>
       <c r="AD16" t="n">
-        <v>1580078.934715011</v>
+        <v>1653167.197542508</v>
       </c>
       <c r="AE16" t="n">
-        <v>2161933.706639922</v>
+        <v>2261936.292267092</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.432439193675461e-06</v>
+        <v>2.650387541549589e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.609375</v>
       </c>
       <c r="AH16" t="n">
-        <v>1955601.787971222</v>
+        <v>2046060.267180645</v>
       </c>
     </row>
     <row r="17">
@@ -7767,28 +7767,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1556.417781293292</v>
+        <v>1629.50604412079</v>
       </c>
       <c r="AB17" t="n">
-        <v>2129.55947267191</v>
+        <v>2229.562058299079</v>
       </c>
       <c r="AC17" t="n">
-        <v>1926.317305455594</v>
+        <v>2016.775784665017</v>
       </c>
       <c r="AD17" t="n">
-        <v>1556417.781293292</v>
+        <v>1629506.04412079</v>
       </c>
       <c r="AE17" t="n">
-        <v>2129559.47267191</v>
+        <v>2229562.058299079</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.437107495355634e-06</v>
+        <v>2.659025121886649e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.57395833333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1926317.305455594</v>
+        <v>2016775.784665017</v>
       </c>
     </row>
     <row r="18">
@@ -7873,28 +7873,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1538.667314500188</v>
+        <v>1599.73065842315</v>
       </c>
       <c r="AB18" t="n">
-        <v>2105.272500910257</v>
+        <v>2188.82206199026</v>
       </c>
       <c r="AC18" t="n">
-        <v>1904.348248191894</v>
+        <v>1979.923956424968</v>
       </c>
       <c r="AD18" t="n">
-        <v>1538667.314500188</v>
+        <v>1599730.65842315</v>
       </c>
       <c r="AE18" t="n">
-        <v>2105272.500910257</v>
+        <v>2188822.061990261</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.442505219173333e-06</v>
+        <v>2.669012324151374e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.53541666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1904348.248191894</v>
+        <v>1979923.956424968</v>
       </c>
     </row>
     <row r="19">
@@ -7979,28 +7979,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1516.10371744757</v>
+        <v>1577.167061370533</v>
       </c>
       <c r="AB19" t="n">
-        <v>2074.399991987219</v>
+        <v>2157.949553067222</v>
       </c>
       <c r="AC19" t="n">
-        <v>1876.422168190633</v>
+        <v>1951.997876423706</v>
       </c>
       <c r="AD19" t="n">
-        <v>1516103.717447571</v>
+        <v>1577167.061370533</v>
       </c>
       <c r="AE19" t="n">
-        <v>2074399.991987219</v>
+        <v>2157949.553067222</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.445860561005957e-06</v>
+        <v>2.675220585018635e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.509375</v>
       </c>
       <c r="AH19" t="n">
-        <v>1876422.168190633</v>
+        <v>1951997.876423706</v>
       </c>
     </row>
     <row r="20">
@@ -8085,28 +8085,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1499.432537084442</v>
+        <v>1560.325288806813</v>
       </c>
       <c r="AB20" t="n">
-        <v>2051.589747533817</v>
+        <v>2134.905896838973</v>
       </c>
       <c r="AC20" t="n">
-        <v>1855.788901453484</v>
+        <v>1931.153474403906</v>
       </c>
       <c r="AD20" t="n">
-        <v>1499432.537084442</v>
+        <v>1560325.288806813</v>
       </c>
       <c r="AE20" t="n">
-        <v>2051589.747533817</v>
+        <v>2134905.896838973</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.449361787266087e-06</v>
+        <v>2.68169877027143e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.48541666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>1855788.901453484</v>
+        <v>1931153.474403906</v>
       </c>
     </row>
     <row r="21">
@@ -8191,28 +8191,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1478.507406261476</v>
+        <v>1539.400157983846</v>
       </c>
       <c r="AB21" t="n">
-        <v>2022.959060390215</v>
+        <v>2106.275209695371</v>
       </c>
       <c r="AC21" t="n">
-        <v>1829.890686907445</v>
+        <v>1905.255259857868</v>
       </c>
       <c r="AD21" t="n">
-        <v>1478507.406261476</v>
+        <v>1539400.157983846</v>
       </c>
       <c r="AE21" t="n">
-        <v>2022959.060390215</v>
+        <v>2106275.209695371</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.452863013526216e-06</v>
+        <v>2.688176955524224e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.459375</v>
       </c>
       <c r="AH21" t="n">
-        <v>1829890.686907445</v>
+        <v>1905255.259857868</v>
       </c>
     </row>
     <row r="22">
@@ -8297,28 +8297,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1466.718372035459</v>
+        <v>1527.611123757829</v>
       </c>
       <c r="AB22" t="n">
-        <v>2006.828783666695</v>
+        <v>2090.144932971852</v>
       </c>
       <c r="AC22" t="n">
-        <v>1815.299861155433</v>
+        <v>1890.664434105856</v>
       </c>
       <c r="AD22" t="n">
-        <v>1466718.372035459</v>
+        <v>1527611.123757829</v>
       </c>
       <c r="AE22" t="n">
-        <v>2006828.783666695</v>
+        <v>2090144.932971852</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.455197164366303e-06</v>
+        <v>2.692495745692754e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10.44270833333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>1815299.861155433</v>
+        <v>1890664.434105856</v>
       </c>
     </row>
     <row r="23">
@@ -8403,28 +8403,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1460.988139067307</v>
+        <v>1521.880890789678</v>
       </c>
       <c r="AB23" t="n">
-        <v>1998.988426119633</v>
+        <v>2082.30457542479</v>
       </c>
       <c r="AC23" t="n">
-        <v>1808.207776328652</v>
+        <v>1883.572349279074</v>
       </c>
       <c r="AD23" t="n">
-        <v>1460988.139067307</v>
+        <v>1521880.890789678</v>
       </c>
       <c r="AE23" t="n">
-        <v>1998988.426119633</v>
+        <v>2082304.575424789</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.45621835535884e-06</v>
+        <v>2.694385216391486e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10.43541666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>1808207.776328652</v>
+        <v>1883572.349279074</v>
       </c>
     </row>
     <row r="24">
@@ -8509,28 +8509,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1466.606219216039</v>
+        <v>1527.498970938409</v>
       </c>
       <c r="AB24" t="n">
-        <v>2006.675331231331</v>
+        <v>2089.991480536488</v>
       </c>
       <c r="AC24" t="n">
-        <v>1815.161054005128</v>
+        <v>1890.525626955551</v>
       </c>
       <c r="AD24" t="n">
-        <v>1466606.219216039</v>
+        <v>1527498.970938409</v>
       </c>
       <c r="AE24" t="n">
-        <v>2006675.331231331</v>
+        <v>2089991.480536488</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.455780702076324e-06</v>
+        <v>2.693575443234887e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>10.43854166666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>1815161.054005128</v>
+        <v>1890525.626955551</v>
       </c>
     </row>
     <row r="25">
@@ -8615,28 +8615,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1472.921238169764</v>
+        <v>1533.813989892135</v>
       </c>
       <c r="AB25" t="n">
-        <v>2015.315818762792</v>
+        <v>2098.631968067948</v>
       </c>
       <c r="AC25" t="n">
-        <v>1822.976905533587</v>
+        <v>1898.34147848401</v>
       </c>
       <c r="AD25" t="n">
-        <v>1472921.238169764</v>
+        <v>1533813.989892135</v>
       </c>
       <c r="AE25" t="n">
-        <v>2015315.818762792</v>
+        <v>2098631.968067949</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.455780702076324e-06</v>
+        <v>2.693575443234887e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>10.43854166666667</v>
       </c>
       <c r="AH25" t="n">
-        <v>1822976.905533587</v>
+        <v>1898341.47848401</v>
       </c>
     </row>
   </sheetData>
@@ -8912,28 +8912,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5761.788226059119</v>
+        <v>5902.782179451133</v>
       </c>
       <c r="AB2" t="n">
-        <v>7883.532843051088</v>
+        <v>8076.446990296278</v>
       </c>
       <c r="AC2" t="n">
-        <v>7131.139533117834</v>
+        <v>7305.642224906639</v>
       </c>
       <c r="AD2" t="n">
-        <v>5761788.226059118</v>
+        <v>5902782.179451133</v>
       </c>
       <c r="AE2" t="n">
-        <v>7883532.843051088</v>
+        <v>8076446.990296278</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.779119732548553e-07</v>
+        <v>1.292204844804644e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.19166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>7131139.533117834</v>
+        <v>7305642.224906639</v>
       </c>
     </row>
     <row r="3">
@@ -9018,28 +9018,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2512.150208592213</v>
+        <v>2594.410942175213</v>
       </c>
       <c r="AB3" t="n">
-        <v>3437.234743641401</v>
+        <v>3549.787508417106</v>
       </c>
       <c r="AC3" t="n">
-        <v>3109.189883897397</v>
+        <v>3211.000770771702</v>
       </c>
       <c r="AD3" t="n">
-        <v>2512150.208592213</v>
+        <v>2594410.942175213</v>
       </c>
       <c r="AE3" t="n">
-        <v>3437234.743641401</v>
+        <v>3549787.508417105</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.094438475076627e-06</v>
+        <v>2.08616864081106e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.36354166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3109189.883897397</v>
+        <v>3211000.770771702</v>
       </c>
     </row>
     <row r="4">
@@ -9124,28 +9124,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2016.049679282713</v>
+        <v>2098.310323357162</v>
       </c>
       <c r="AB4" t="n">
-        <v>2758.448113029259</v>
+        <v>2871.000755335408</v>
       </c>
       <c r="AC4" t="n">
-        <v>2495.185696627987</v>
+        <v>2596.996472721065</v>
       </c>
       <c r="AD4" t="n">
-        <v>2016049.679282713</v>
+        <v>2098310.323357163</v>
       </c>
       <c r="AE4" t="n">
-        <v>2758448.113029259</v>
+        <v>2871000.755335408</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.24444838189215e-06</v>
+        <v>2.372110674590182e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.63125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2495185.696627988</v>
+        <v>2596996.472721065</v>
       </c>
     </row>
     <row r="5">
@@ -9230,28 +9230,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1809.326402922207</v>
+        <v>1891.501706142085</v>
       </c>
       <c r="AB5" t="n">
-        <v>2475.600206325517</v>
+        <v>2588.036081509469</v>
       </c>
       <c r="AC5" t="n">
-        <v>2239.332397160521</v>
+        <v>2341.037550221659</v>
       </c>
       <c r="AD5" t="n">
-        <v>1809326.402922207</v>
+        <v>1891501.706142085</v>
       </c>
       <c r="AE5" t="n">
-        <v>2475600.206325518</v>
+        <v>2588036.081509469</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.322320727884916e-06</v>
+        <v>2.520547384278337e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.88854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2239332.397160521</v>
+        <v>2341037.550221659</v>
       </c>
     </row>
     <row r="6">
@@ -9336,28 +9336,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1696.44421501981</v>
+        <v>1766.855895615521</v>
       </c>
       <c r="AB6" t="n">
-        <v>2321.149816826799</v>
+        <v>2417.490184561964</v>
       </c>
       <c r="AC6" t="n">
-        <v>2099.622536063077</v>
+        <v>2186.768314316153</v>
       </c>
       <c r="AD6" t="n">
-        <v>1696444.21501981</v>
+        <v>1766855.895615521</v>
       </c>
       <c r="AE6" t="n">
-        <v>2321149.816826799</v>
+        <v>2417490.184561964</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.370764571031579e-06</v>
+        <v>2.612888825770388e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.46770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2099622.536063077</v>
+        <v>2186768.314316154</v>
       </c>
     </row>
     <row r="7">
@@ -9442,28 +9442,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1622.655496169063</v>
+        <v>1681.4741463412</v>
       </c>
       <c r="AB7" t="n">
-        <v>2220.18883636668</v>
+        <v>2300.667108427906</v>
       </c>
       <c r="AC7" t="n">
-        <v>2008.297129878446</v>
+        <v>2081.094668606112</v>
       </c>
       <c r="AD7" t="n">
-        <v>1622655.496169063</v>
+        <v>1681474.1463412</v>
       </c>
       <c r="AE7" t="n">
-        <v>2220188.83636668</v>
+        <v>2300667.108427905</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.402909551063476e-06</v>
+        <v>2.674162118723057e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.20520833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2008297.129878446</v>
+        <v>2081094.668606112</v>
       </c>
     </row>
     <row r="8">
@@ -9548,28 +9548,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1565.07807972406</v>
+        <v>1623.896729896197</v>
       </c>
       <c r="AB8" t="n">
-        <v>2141.408875050288</v>
+        <v>2221.887147111513</v>
       </c>
       <c r="AC8" t="n">
-        <v>1937.03581750172</v>
+        <v>2009.833356229386</v>
       </c>
       <c r="AD8" t="n">
-        <v>1565078.07972406</v>
+        <v>1623896.729896197</v>
       </c>
       <c r="AE8" t="n">
-        <v>2141408.875050288</v>
+        <v>2221887.147111513</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.427206930336413e-06</v>
+        <v>2.720476673490098e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.01458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1937035.817501721</v>
+        <v>2009833.356229387</v>
       </c>
     </row>
     <row r="9">
@@ -9654,28 +9654,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1505.333876815992</v>
+        <v>1575.830808757724</v>
       </c>
       <c r="AB9" t="n">
-        <v>2059.664220903258</v>
+        <v>2156.121233291072</v>
       </c>
       <c r="AC9" t="n">
-        <v>1863.09275841714</v>
+        <v>1950.344048920929</v>
       </c>
       <c r="AD9" t="n">
-        <v>1505333.876815992</v>
+        <v>1575830.808757724</v>
       </c>
       <c r="AE9" t="n">
-        <v>2059664.220903258</v>
+        <v>2156121.233291072</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.446222270636972e-06</v>
+        <v>2.756722846786043e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.86979166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1863092.75841714</v>
+        <v>1950344.048920929</v>
       </c>
     </row>
     <row r="10">
@@ -9760,28 +9760,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1459.794508647954</v>
+        <v>1530.291440589687</v>
       </c>
       <c r="AB10" t="n">
-        <v>1997.355248320617</v>
+        <v>2093.812260708431</v>
       </c>
       <c r="AC10" t="n">
-        <v>1806.730466726594</v>
+        <v>1893.981757230383</v>
       </c>
       <c r="AD10" t="n">
-        <v>1459794.508647955</v>
+        <v>1530291.440589687</v>
       </c>
       <c r="AE10" t="n">
-        <v>1997355.248320617</v>
+        <v>2093812.260708431</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.464181203143056e-06</v>
+        <v>2.790955343787769e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.73645833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1806730.466726594</v>
+        <v>1893981.757230383</v>
       </c>
     </row>
     <row r="11">
@@ -9866,28 +9866,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1440.436716525797</v>
+        <v>1510.933648467529</v>
       </c>
       <c r="AB11" t="n">
-        <v>1970.869063133565</v>
+        <v>2067.32607552138</v>
       </c>
       <c r="AC11" t="n">
-        <v>1782.7720858802</v>
+        <v>1870.023376383989</v>
       </c>
       <c r="AD11" t="n">
-        <v>1440436.716525797</v>
+        <v>1510933.648467529</v>
       </c>
       <c r="AE11" t="n">
-        <v>1970869.063133565</v>
+        <v>2067326.075521379</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.467501341925693e-06</v>
+        <v>2.797284040712458e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.71145833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1782772.0858802</v>
+        <v>1870023.376383989</v>
       </c>
     </row>
     <row r="12">
@@ -9972,28 +9972,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1407.49905074141</v>
+        <v>1477.995982683142</v>
       </c>
       <c r="AB12" t="n">
-        <v>1925.802295700108</v>
+        <v>2022.259308087922</v>
       </c>
       <c r="AC12" t="n">
-        <v>1742.006427478987</v>
+        <v>1829.257717982776</v>
       </c>
       <c r="AD12" t="n">
-        <v>1407499.05074141</v>
+        <v>1477995.982683142</v>
       </c>
       <c r="AE12" t="n">
-        <v>1925802.295700108</v>
+        <v>2022259.308087922</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.47836725066887e-06</v>
+        <v>2.817996139738712e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.634375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1742006.427478987</v>
+        <v>1829257.717982776</v>
       </c>
     </row>
     <row r="13">
@@ -10078,28 +10078,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1376.312953530153</v>
+        <v>1446.809885471884</v>
       </c>
       <c r="AB13" t="n">
-        <v>1883.132101662158</v>
+        <v>1979.589114049972</v>
       </c>
       <c r="AC13" t="n">
-        <v>1703.408616872026</v>
+        <v>1790.659907375814</v>
       </c>
       <c r="AD13" t="n">
-        <v>1376312.953530153</v>
+        <v>1446809.885471884</v>
       </c>
       <c r="AE13" t="n">
-        <v>1883132.101662158</v>
+        <v>1979589.114049972</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.486667597625463e-06</v>
+        <v>2.833817882050434e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.575</v>
       </c>
       <c r="AH13" t="n">
-        <v>1703408.616872025</v>
+        <v>1790659.907375814</v>
       </c>
     </row>
     <row r="14">
@@ -10184,28 +10184,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1344.421109257652</v>
+        <v>1403.325010775809</v>
       </c>
       <c r="AB14" t="n">
-        <v>1839.496273359651</v>
+        <v>1920.091190073526</v>
       </c>
       <c r="AC14" t="n">
-        <v>1663.93733077944</v>
+        <v>1736.840381757819</v>
       </c>
       <c r="AD14" t="n">
-        <v>1344421.109257651</v>
+        <v>1403325.010775809</v>
       </c>
       <c r="AE14" t="n">
-        <v>1839496.273359651</v>
+        <v>1920091.190073526</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.494213367586002e-06</v>
+        <v>2.848201284152e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.52083333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1663937.33077944</v>
+        <v>1736840.381757819</v>
       </c>
     </row>
     <row r="15">
@@ -10290,28 +10290,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1320.828421850081</v>
+        <v>1379.561731167646</v>
       </c>
       <c r="AB15" t="n">
-        <v>1807.215717612703</v>
+        <v>1887.577222551731</v>
       </c>
       <c r="AC15" t="n">
-        <v>1634.737585966936</v>
+        <v>1707.429501662664</v>
       </c>
       <c r="AD15" t="n">
-        <v>1320828.421850081</v>
+        <v>1379561.731167646</v>
       </c>
       <c r="AE15" t="n">
-        <v>1807215.717612703</v>
+        <v>1887577.22255173</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.498740829562326e-06</v>
+        <v>2.856831325412939e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.48958333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1634737.585966936</v>
+        <v>1707429.501662664</v>
       </c>
     </row>
     <row r="16">
@@ -10396,28 +10396,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1308.38475890974</v>
+        <v>1367.118068227306</v>
       </c>
       <c r="AB16" t="n">
-        <v>1790.189749002065</v>
+        <v>1870.551253941093</v>
       </c>
       <c r="AC16" t="n">
-        <v>1619.3365519044</v>
+        <v>1692.028467600128</v>
       </c>
       <c r="AD16" t="n">
-        <v>1308384.75890974</v>
+        <v>1367118.068227306</v>
       </c>
       <c r="AE16" t="n">
-        <v>1790189.749002065</v>
+        <v>1870551.253941093</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.50145730674812e-06</v>
+        <v>2.862009350169502e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.46979166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1619336.5519044</v>
+        <v>1692028.467600128</v>
       </c>
     </row>
     <row r="17">
@@ -10502,28 +10502,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1311.282728920211</v>
+        <v>1370.016038237777</v>
       </c>
       <c r="AB17" t="n">
-        <v>1794.154879419805</v>
+        <v>1874.516384358832</v>
       </c>
       <c r="AC17" t="n">
-        <v>1622.923255840167</v>
+        <v>1695.615171535894</v>
       </c>
       <c r="AD17" t="n">
-        <v>1311282.728920211</v>
+        <v>1370016.038237777</v>
       </c>
       <c r="AE17" t="n">
-        <v>1794154.879419805</v>
+        <v>1874516.384358832</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.501608222147331e-06</v>
+        <v>2.862297018211534e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.46875</v>
       </c>
       <c r="AH17" t="n">
-        <v>1622923.255840167</v>
+        <v>1695615.171535894</v>
       </c>
     </row>
     <row r="18">
@@ -10608,28 +10608,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1316.432698485947</v>
+        <v>1375.166007803512</v>
       </c>
       <c r="AB18" t="n">
-        <v>1801.201294980267</v>
+        <v>1881.562799919294</v>
       </c>
       <c r="AC18" t="n">
-        <v>1629.297171389244</v>
+        <v>1701.989087084972</v>
       </c>
       <c r="AD18" t="n">
-        <v>1316432.698485947</v>
+        <v>1375166.007803512</v>
       </c>
       <c r="AE18" t="n">
-        <v>1801201.294980267</v>
+        <v>1881562.799919294</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.502060968344963e-06</v>
+        <v>2.863160022337628e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.465625</v>
       </c>
       <c r="AH18" t="n">
-        <v>1629297.171389244</v>
+        <v>1701989.087084972</v>
       </c>
     </row>
   </sheetData>
@@ -10905,28 +10905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1864.653078594922</v>
+        <v>1948.275277669878</v>
       </c>
       <c r="AB2" t="n">
-        <v>2551.300604821591</v>
+        <v>2665.716186747</v>
       </c>
       <c r="AC2" t="n">
-        <v>2307.808055870306</v>
+        <v>2411.303975240033</v>
       </c>
       <c r="AD2" t="n">
-        <v>1864653.078594922</v>
+        <v>1948275.277669878</v>
       </c>
       <c r="AE2" t="n">
-        <v>2551300.604821591</v>
+        <v>2665716.186747001</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.181996796035218e-06</v>
+        <v>2.517343843525196e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.83958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2307808.055870306</v>
+        <v>2411303.975240033</v>
       </c>
     </row>
     <row r="3">
@@ -11011,28 +11011,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1233.043575699186</v>
+        <v>1306.116991428379</v>
       </c>
       <c r="AB3" t="n">
-        <v>1687.104618314965</v>
+        <v>1787.086889487226</v>
       </c>
       <c r="AC3" t="n">
-        <v>1526.089721409188</v>
+        <v>1616.529824946768</v>
       </c>
       <c r="AD3" t="n">
-        <v>1233043.575699186</v>
+        <v>1306116.991428379</v>
       </c>
       <c r="AE3" t="n">
-        <v>1687104.618314965</v>
+        <v>1787086.889487226</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.474001703333276e-06</v>
+        <v>3.139237877528998e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.90104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1526089.721409188</v>
+        <v>1616529.824946768</v>
       </c>
     </row>
     <row r="4">
@@ -11117,28 +11117,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1073.603435552098</v>
+        <v>1125.920737516603</v>
       </c>
       <c r="AB4" t="n">
-        <v>1468.951584563171</v>
+        <v>1540.534425187475</v>
       </c>
       <c r="AC4" t="n">
-        <v>1328.756907018959</v>
+        <v>1393.507981801227</v>
       </c>
       <c r="AD4" t="n">
-        <v>1073603.435552098</v>
+        <v>1125920.737516603</v>
       </c>
       <c r="AE4" t="n">
-        <v>1468951.584563171</v>
+        <v>1540534.425187475</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.573357467638843e-06</v>
+        <v>3.350839653804802e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.15</v>
       </c>
       <c r="AH4" t="n">
-        <v>1328756.907018959</v>
+        <v>1393507.981801227</v>
       </c>
     </row>
     <row r="5">
@@ -11223,28 +11223,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>970.2833298152011</v>
+        <v>1032.978643907775</v>
       </c>
       <c r="AB5" t="n">
-        <v>1327.584457732583</v>
+        <v>1413.366952396091</v>
       </c>
       <c r="AC5" t="n">
-        <v>1200.881660363073</v>
+        <v>1278.477194132384</v>
       </c>
       <c r="AD5" t="n">
-        <v>970283.3298152011</v>
+        <v>1032978.643907775</v>
       </c>
       <c r="AE5" t="n">
-        <v>1327584.457732583</v>
+        <v>1413366.952396091</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.623540548593181e-06</v>
+        <v>3.457716483178004e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.80520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1200881.660363073</v>
+        <v>1278477.194132384</v>
       </c>
     </row>
     <row r="6">
@@ -11329,28 +11329,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>948.9312297204996</v>
+        <v>1011.626543813074</v>
       </c>
       <c r="AB6" t="n">
-        <v>1298.369572394839</v>
+        <v>1384.152067058347</v>
       </c>
       <c r="AC6" t="n">
-        <v>1174.455002678614</v>
+        <v>1252.050536447925</v>
       </c>
       <c r="AD6" t="n">
-        <v>948931.2297204996</v>
+        <v>1011626.543813074</v>
       </c>
       <c r="AE6" t="n">
-        <v>1298369.572394839</v>
+        <v>1384152.067058346</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.635833719430989e-06</v>
+        <v>3.483897719903655e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.72291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1174455.002678614</v>
+        <v>1252050.536447925</v>
       </c>
     </row>
     <row r="7">
@@ -11435,28 +11435,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>955.9798504045492</v>
+        <v>1018.675164497123</v>
       </c>
       <c r="AB7" t="n">
-        <v>1308.013806177953</v>
+        <v>1393.796300841461</v>
       </c>
       <c r="AC7" t="n">
-        <v>1183.178804325235</v>
+        <v>1260.774338094546</v>
       </c>
       <c r="AD7" t="n">
-        <v>955979.8504045492</v>
+        <v>1018675.164497123</v>
       </c>
       <c r="AE7" t="n">
-        <v>1308013.806177953</v>
+        <v>1393796.300841461</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.636002119031506e-06</v>
+        <v>3.484256366982088e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.72291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1183178.804325235</v>
+        <v>1260774.338094546</v>
       </c>
     </row>
   </sheetData>
@@ -11732,28 +11732,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2804.500339814442</v>
+        <v>2892.274797692596</v>
       </c>
       <c r="AB2" t="n">
-        <v>3837.241090757201</v>
+        <v>3957.337976361883</v>
       </c>
       <c r="AC2" t="n">
-        <v>3471.020186656885</v>
+        <v>3579.655194056489</v>
       </c>
       <c r="AD2" t="n">
-        <v>2804500.339814442</v>
+        <v>2892274.797692596</v>
       </c>
       <c r="AE2" t="n">
-        <v>3837241.090757201</v>
+        <v>3957337.976361883</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.806312467783985e-07</v>
+        <v>1.991020466231157e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.11145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3471020.186656885</v>
+        <v>3579655.194056489</v>
       </c>
     </row>
     <row r="3">
@@ -11838,28 +11838,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1641.010592871448</v>
+        <v>1717.727824340279</v>
       </c>
       <c r="AB3" t="n">
-        <v>2245.3030894446</v>
+        <v>2350.270990065639</v>
       </c>
       <c r="AC3" t="n">
-        <v>2031.014513890685</v>
+        <v>2125.964425399826</v>
       </c>
       <c r="AD3" t="n">
-        <v>1641010.592871448</v>
+        <v>1717727.824340279</v>
       </c>
       <c r="AE3" t="n">
-        <v>2245303.0894446</v>
+        <v>2350270.990065639</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.323457481893305e-06</v>
+        <v>2.687076249398546e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.68020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2031014.513890685</v>
+        <v>2125964.425399826</v>
       </c>
     </row>
     <row r="4">
@@ -11944,28 +11944,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1394.645609869407</v>
+        <v>1460.476386146609</v>
       </c>
       <c r="AB4" t="n">
-        <v>1908.215650845242</v>
+        <v>1998.288223196588</v>
       </c>
       <c r="AC4" t="n">
-        <v>1726.098227326058</v>
+        <v>1807.574399789841</v>
       </c>
       <c r="AD4" t="n">
-        <v>1394645.609869407</v>
+        <v>1460476.386146609</v>
       </c>
       <c r="AE4" t="n">
-        <v>1908215.650845242</v>
+        <v>1998288.223196588</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.442190064261578e-06</v>
+        <v>2.928144441219207e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.63645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1726098.227326058</v>
+        <v>1807574.399789841</v>
       </c>
     </row>
     <row r="5">
@@ -12050,28 +12050,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1280.185208378847</v>
+        <v>1335.0442781184</v>
       </c>
       <c r="AB5" t="n">
-        <v>1751.605879889331</v>
+        <v>1826.666479318334</v>
       </c>
       <c r="AC5" t="n">
-        <v>1584.435073106985</v>
+        <v>1652.331994274697</v>
       </c>
       <c r="AD5" t="n">
-        <v>1280185.208378847</v>
+        <v>1335044.2781184</v>
       </c>
       <c r="AE5" t="n">
-        <v>1751605.879889331</v>
+        <v>1826666.479318334</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.503409034817811e-06</v>
+        <v>3.052440116784812e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.1625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1584435.073106985</v>
+        <v>1652331.994274697</v>
       </c>
     </row>
     <row r="6">
@@ -12156,28 +12156,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1194.643818162249</v>
+        <v>1260.389253584879</v>
       </c>
       <c r="AB6" t="n">
-        <v>1634.564375975187</v>
+        <v>1724.520181204335</v>
       </c>
       <c r="AC6" t="n">
-        <v>1478.563846057625</v>
+        <v>1559.934395489468</v>
       </c>
       <c r="AD6" t="n">
-        <v>1194643.818162249</v>
+        <v>1260389.253584879</v>
       </c>
       <c r="AE6" t="n">
-        <v>1634564.375975187</v>
+        <v>1724520.181204335</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.53981821204336e-06</v>
+        <v>3.126363334358041e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.89895833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1478563.846057625</v>
+        <v>1559934.395489468</v>
       </c>
     </row>
     <row r="7">
@@ -12262,28 +12262,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1132.427112123563</v>
+        <v>1198.172547546194</v>
       </c>
       <c r="AB7" t="n">
-        <v>1549.436733965706</v>
+        <v>1639.392539194853</v>
       </c>
       <c r="AC7" t="n">
-        <v>1401.560666724132</v>
+        <v>1482.931216155976</v>
       </c>
       <c r="AD7" t="n">
-        <v>1132427.112123563</v>
+        <v>1198172.547546193</v>
       </c>
       <c r="AE7" t="n">
-        <v>1549436.733965706</v>
+        <v>1639392.539194853</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.566883441131379e-06</v>
+        <v>3.181315106713361e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.71041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1401560.666724132</v>
+        <v>1482931.216155976</v>
       </c>
     </row>
     <row r="8">
@@ -12368,28 +12368,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1086.70427698587</v>
+        <v>1152.449712408501</v>
       </c>
       <c r="AB8" t="n">
-        <v>1486.876733781192</v>
+        <v>1576.832539010339</v>
       </c>
       <c r="AC8" t="n">
-        <v>1344.971305153717</v>
+        <v>1426.34185458556</v>
       </c>
       <c r="AD8" t="n">
-        <v>1086704.27698587</v>
+        <v>1152449.712408501</v>
       </c>
       <c r="AE8" t="n">
-        <v>1486876.733781192</v>
+        <v>1576832.539010339</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.581704876108151e-06</v>
+        <v>3.21140774395556e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.609375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1344971.305153717</v>
+        <v>1426341.85458556</v>
       </c>
     </row>
     <row r="9">
@@ -12474,28 +12474,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1075.720849890005</v>
+        <v>1141.466285312635</v>
       </c>
       <c r="AB9" t="n">
-        <v>1471.848724274023</v>
+        <v>1561.804529503171</v>
       </c>
       <c r="AC9" t="n">
-        <v>1331.377547781969</v>
+        <v>1412.748097213812</v>
       </c>
       <c r="AD9" t="n">
-        <v>1075720.849890005</v>
+        <v>1141466.285312635</v>
       </c>
       <c r="AE9" t="n">
-        <v>1471848.724274023</v>
+        <v>1561804.529503171</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.585410234852344e-06</v>
+        <v>3.21893090326611e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.58541666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1331377.547781969</v>
+        <v>1412748.097213812</v>
       </c>
     </row>
     <row r="10">
@@ -12580,28 +12580,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1079.773080677872</v>
+        <v>1145.518516100502</v>
       </c>
       <c r="AB10" t="n">
-        <v>1477.393165209787</v>
+        <v>1567.348970438935</v>
       </c>
       <c r="AC10" t="n">
-        <v>1336.392835056495</v>
+        <v>1417.763384488339</v>
       </c>
       <c r="AD10" t="n">
-        <v>1079773.080677872</v>
+        <v>1145518.516100502</v>
       </c>
       <c r="AE10" t="n">
-        <v>1477393.165209787</v>
+        <v>1567348.970438935</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.586860157839203e-06</v>
+        <v>3.221874748213716e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.575</v>
       </c>
       <c r="AH10" t="n">
-        <v>1336392.835056495</v>
+        <v>1417763.384488339</v>
       </c>
     </row>
   </sheetData>
@@ -12877,28 +12877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1338.192262748325</v>
+        <v>1408.347088626687</v>
       </c>
       <c r="AB2" t="n">
-        <v>1830.973690768277</v>
+        <v>1926.962618547535</v>
       </c>
       <c r="AC2" t="n">
-        <v>1656.228131509067</v>
+        <v>1743.056010742379</v>
       </c>
       <c r="AD2" t="n">
-        <v>1338192.262748325</v>
+        <v>1408347.088626687</v>
       </c>
       <c r="AE2" t="n">
-        <v>1830973.690768277</v>
+        <v>1926962.618547535</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.355627846058283e-06</v>
+        <v>3.018718426462674e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.43958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1656228.131509067</v>
+        <v>1743056.010742379</v>
       </c>
     </row>
     <row r="3">
@@ -12983,28 +12983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>948.8960245170423</v>
+        <v>1009.004362098411</v>
       </c>
       <c r="AB3" t="n">
-        <v>1298.321403082324</v>
+        <v>1380.564282353852</v>
       </c>
       <c r="AC3" t="n">
-        <v>1174.41143057768</v>
+        <v>1248.80516488014</v>
       </c>
       <c r="AD3" t="n">
-        <v>948896.0245170423</v>
+        <v>1009004.362098411</v>
       </c>
       <c r="AE3" t="n">
-        <v>1298321.403082324</v>
+        <v>1380564.282353852</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.604331600037754e-06</v>
+        <v>3.572533108752691e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.35520833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1174411.43057768</v>
+        <v>1248805.16488014</v>
       </c>
     </row>
     <row r="4">
@@ -13089,28 +13089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>850.1002899034288</v>
+        <v>910.2938788308181</v>
       </c>
       <c r="AB4" t="n">
-        <v>1163.144720423779</v>
+        <v>1245.504244347957</v>
       </c>
       <c r="AC4" t="n">
-        <v>1052.1358207904</v>
+        <v>1126.635067343573</v>
       </c>
       <c r="AD4" t="n">
-        <v>850100.2899034288</v>
+        <v>910293.8788308181</v>
       </c>
       <c r="AE4" t="n">
-        <v>1163144.720423779</v>
+        <v>1245504.244347956</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.664496221253603e-06</v>
+        <v>3.70650796860344e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.94583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1052135.8207904</v>
+        <v>1126635.067343573</v>
       </c>
     </row>
     <row r="5">
@@ -13195,28 +13195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>856.5040541397349</v>
+        <v>916.6976430671241</v>
       </c>
       <c r="AB5" t="n">
-        <v>1171.906633166031</v>
+        <v>1254.266157090209</v>
       </c>
       <c r="AC5" t="n">
-        <v>1060.061508877955</v>
+        <v>1134.560755431127</v>
       </c>
       <c r="AD5" t="n">
-        <v>856504.0541397348</v>
+        <v>916697.6430671241</v>
       </c>
       <c r="AE5" t="n">
-        <v>1171906.633166031</v>
+        <v>1254266.157090209</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.665720501336484e-06</v>
+        <v>3.709234201216682e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.9375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1060061.508877955</v>
+        <v>1134560.755431127</v>
       </c>
     </row>
   </sheetData>
@@ -13492,28 +13492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6506.620624001399</v>
+        <v>6660.939277405521</v>
       </c>
       <c r="AB2" t="n">
-        <v>8902.645389602052</v>
+        <v>9113.790979248084</v>
       </c>
       <c r="AC2" t="n">
-        <v>8052.989408559376</v>
+        <v>8243.98355947428</v>
       </c>
       <c r="AD2" t="n">
-        <v>6506620.624001399</v>
+        <v>6660939.277405521</v>
       </c>
       <c r="AE2" t="n">
-        <v>8902645.389602052</v>
+        <v>9113790.979248084</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.35030643335089e-07</v>
+        <v>1.200692868880168e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.53020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>8052989.408559376</v>
+        <v>8243983.559474279</v>
       </c>
     </row>
     <row r="3">
@@ -13598,28 +13598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2670.148724967006</v>
+        <v>2765.081226733169</v>
       </c>
       <c r="AB3" t="n">
-        <v>3653.415284148</v>
+        <v>3783.306121190867</v>
       </c>
       <c r="AC3" t="n">
-        <v>3304.738457029333</v>
+        <v>3422.232694887758</v>
       </c>
       <c r="AD3" t="n">
-        <v>2670148.724967006</v>
+        <v>2765081.226733169</v>
       </c>
       <c r="AE3" t="n">
-        <v>3653415.284148</v>
+        <v>3783306.121190867</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.061724573018322e-06</v>
+        <v>2.007470248747129e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.67395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3304738.457029333</v>
+        <v>3422232.694887758</v>
       </c>
     </row>
     <row r="4">
@@ -13704,28 +13704,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2121.176522265105</v>
+        <v>2204.231793703678</v>
       </c>
       <c r="AB4" t="n">
-        <v>2902.287297466753</v>
+        <v>3015.927183989157</v>
       </c>
       <c r="AC4" t="n">
-        <v>2625.297071182331</v>
+        <v>2728.091326429506</v>
       </c>
       <c r="AD4" t="n">
-        <v>2121176.522265105</v>
+        <v>2204231.793703678</v>
       </c>
       <c r="AE4" t="n">
-        <v>2902287.297466754</v>
+        <v>3015927.183989157</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.216369341084381e-06</v>
+        <v>2.299866957749036e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.80833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2625297.071182332</v>
+        <v>2728091.326429506</v>
       </c>
     </row>
     <row r="5">
@@ -13810,28 +13810,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1909.583468600011</v>
+        <v>1980.761599219541</v>
       </c>
       <c r="AB5" t="n">
-        <v>2612.776346615464</v>
+        <v>2710.165405086607</v>
       </c>
       <c r="AC5" t="n">
-        <v>2363.416639149118</v>
+        <v>2451.511022566177</v>
       </c>
       <c r="AD5" t="n">
-        <v>1909583.468600011</v>
+        <v>1980761.599219541</v>
       </c>
       <c r="AE5" t="n">
-        <v>2612776.346615464</v>
+        <v>2710165.405086607</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.29638380038355e-06</v>
+        <v>2.451155390356405e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.01770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2363416.639149118</v>
+        <v>2451511.022566177</v>
       </c>
     </row>
     <row r="6">
@@ -13916,28 +13916,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1775.744417434899</v>
+        <v>1847.00779940045</v>
       </c>
       <c r="AB6" t="n">
-        <v>2429.651852249144</v>
+        <v>2527.157555372937</v>
       </c>
       <c r="AC6" t="n">
-        <v>2197.769289508277</v>
+        <v>2285.969185176049</v>
       </c>
       <c r="AD6" t="n">
-        <v>1775744.417434899</v>
+        <v>1847007.79940045</v>
       </c>
       <c r="AE6" t="n">
-        <v>2429651.852249144</v>
+        <v>2527157.555372937</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.34648631228116e-06</v>
+        <v>2.54588739955915e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.56979166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2197769.289508277</v>
+        <v>2285969.185176048</v>
       </c>
     </row>
     <row r="7">
@@ -14022,28 +14022,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1695.992505834528</v>
+        <v>1767.085295599487</v>
       </c>
       <c r="AB7" t="n">
-        <v>2320.531768391493</v>
+        <v>2417.804059740439</v>
       </c>
       <c r="AC7" t="n">
-        <v>2099.063473303001</v>
+        <v>2187.052233688121</v>
       </c>
       <c r="AD7" t="n">
-        <v>1695992.505834528</v>
+        <v>1767085.295599487</v>
       </c>
       <c r="AE7" t="n">
-        <v>2320531.768391493</v>
+        <v>2417804.059740439</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.380885051792953e-06</v>
+        <v>2.610927286474468e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.28229166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2099063.473303001</v>
+        <v>2187052.233688121</v>
       </c>
     </row>
     <row r="8">
@@ -14128,28 +14128,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1637.85678960846</v>
+        <v>1697.243030754971</v>
       </c>
       <c r="AB8" t="n">
-        <v>2240.9879166842</v>
+        <v>2322.242791756909</v>
       </c>
       <c r="AC8" t="n">
-        <v>2027.111175162154</v>
+        <v>2100.611198999858</v>
       </c>
       <c r="AD8" t="n">
-        <v>1637856.78960846</v>
+        <v>1697243.030754971</v>
       </c>
       <c r="AE8" t="n">
-        <v>2240987.9166842</v>
+        <v>2322242.791756909</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.404515490240184e-06</v>
+        <v>2.655606860964121e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.09166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2027111.175162154</v>
+        <v>2100611.198999858</v>
       </c>
     </row>
     <row r="9">
@@ -14234,28 +14234,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1580.661965227042</v>
+        <v>1651.840006338022</v>
       </c>
       <c r="AB9" t="n">
-        <v>2162.731434707974</v>
+        <v>2260.120370709569</v>
       </c>
       <c r="AC9" t="n">
-        <v>1956.323381992077</v>
+        <v>2044.41765462791</v>
       </c>
       <c r="AD9" t="n">
-        <v>1580661.965227042</v>
+        <v>1651840.006338021</v>
       </c>
       <c r="AE9" t="n">
-        <v>2162731.434707974</v>
+        <v>2260120.370709569</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.422761778155135e-06</v>
+        <v>2.690106279240941e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.95</v>
       </c>
       <c r="AH9" t="n">
-        <v>1956323.381992077</v>
+        <v>2044417.65462791</v>
       </c>
     </row>
     <row r="10">
@@ -14340,28 +14340,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1534.840378403153</v>
+        <v>1606.018419514132</v>
       </c>
       <c r="AB10" t="n">
-        <v>2100.036318109789</v>
+        <v>2197.425254111385</v>
       </c>
       <c r="AC10" t="n">
-        <v>1899.611799328874</v>
+        <v>1987.706071964707</v>
       </c>
       <c r="AD10" t="n">
-        <v>1534840.378403153</v>
+        <v>1606018.419514132</v>
       </c>
       <c r="AE10" t="n">
-        <v>2100036.318109789</v>
+        <v>2197425.254111385</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.440260267385047e-06</v>
+        <v>2.723191786932646e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.81770833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1899611.799328874</v>
+        <v>1987706.071964707</v>
       </c>
     </row>
     <row r="11">
@@ -14446,28 +14446,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1512.882853771508</v>
+        <v>1584.060894882487</v>
       </c>
       <c r="AB11" t="n">
-        <v>2069.993064211153</v>
+        <v>2167.382000212748</v>
       </c>
       <c r="AC11" t="n">
-        <v>1872.435831416352</v>
+        <v>1960.530104052185</v>
       </c>
       <c r="AD11" t="n">
-        <v>1512882.853771508</v>
+        <v>1584060.894882487</v>
       </c>
       <c r="AE11" t="n">
-        <v>2069993.064211152</v>
+        <v>2167382.000212748</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.446541776339374e-06</v>
+        <v>2.735068635847617e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.76979166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1872435.831416352</v>
+        <v>1960530.104052185</v>
       </c>
     </row>
     <row r="12">
@@ -14552,28 +14552,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1477.585820082379</v>
+        <v>1548.763861193359</v>
       </c>
       <c r="AB12" t="n">
-        <v>2021.698105522462</v>
+        <v>2119.087041524057</v>
       </c>
       <c r="AC12" t="n">
-        <v>1828.75007580251</v>
+        <v>1916.844348438343</v>
       </c>
       <c r="AD12" t="n">
-        <v>1477585.820082379</v>
+        <v>1548763.861193359</v>
       </c>
       <c r="AE12" t="n">
-        <v>2021698.105522462</v>
+        <v>2119087.041524057</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.457908316351966e-06</v>
+        <v>2.756560076741375e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.68645833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1828750.07580251</v>
+        <v>1916844.348438343</v>
       </c>
     </row>
     <row r="13">
@@ -14658,28 +14658,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1448.433879647936</v>
+        <v>1519.611920758916</v>
       </c>
       <c r="AB13" t="n">
-        <v>1981.811134527213</v>
+        <v>2079.200070528808</v>
       </c>
       <c r="AC13" t="n">
-        <v>1792.669861337332</v>
+        <v>1880.764133973165</v>
       </c>
       <c r="AD13" t="n">
-        <v>1448433.879647936</v>
+        <v>1519611.920758916</v>
       </c>
       <c r="AE13" t="n">
-        <v>1981811.134527213</v>
+        <v>2079200.070528808</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.466582781098418e-06</v>
+        <v>2.772961439528715e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.62291666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1792669.861337332</v>
+        <v>1880764.133973165</v>
       </c>
     </row>
     <row r="14">
@@ -14764,28 +14764,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1422.062464059926</v>
+        <v>1493.240505170905</v>
       </c>
       <c r="AB14" t="n">
-        <v>1945.728600294952</v>
+        <v>2043.117536296547</v>
       </c>
       <c r="AC14" t="n">
-        <v>1760.030993530043</v>
+        <v>1848.125266165876</v>
       </c>
       <c r="AD14" t="n">
-        <v>1422062.464059926</v>
+        <v>1493240.505170905</v>
       </c>
       <c r="AE14" t="n">
-        <v>1945728.600294953</v>
+        <v>2043117.536296547</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.473761648474792e-06</v>
+        <v>2.786534981145825e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.57083333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1760030.993530043</v>
+        <v>1848125.266165876</v>
       </c>
     </row>
     <row r="15">
@@ -14870,28 +14870,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1392.966601688894</v>
+        <v>1452.438094181425</v>
       </c>
       <c r="AB15" t="n">
-        <v>1905.918357780052</v>
+        <v>1987.28987750541</v>
       </c>
       <c r="AC15" t="n">
-        <v>1724.020184686739</v>
+        <v>1797.625720775154</v>
       </c>
       <c r="AD15" t="n">
-        <v>1392966.601688894</v>
+        <v>1452438.094181425</v>
       </c>
       <c r="AE15" t="n">
-        <v>1905918.357780052</v>
+        <v>1987289.87750541</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.479145799007073e-06</v>
+        <v>2.796715137358657e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.53229166666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1724020.184686739</v>
+        <v>1797625.720775154</v>
       </c>
     </row>
     <row r="16">
@@ -14976,28 +14976,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1363.822829209287</v>
+        <v>1423.123729501226</v>
       </c>
       <c r="AB16" t="n">
-        <v>1866.042562540954</v>
+        <v>1947.180670491465</v>
       </c>
       <c r="AC16" t="n">
-        <v>1687.95007937923</v>
+        <v>1761.344480184994</v>
       </c>
       <c r="AD16" t="n">
-        <v>1363822.829209287</v>
+        <v>1423123.729501226</v>
       </c>
       <c r="AE16" t="n">
-        <v>1866042.562540954</v>
+        <v>1947180.670491465</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.486324666383447e-06</v>
+        <v>2.810288678975767e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.48229166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1687950.07937923</v>
+        <v>1761344.480184994</v>
       </c>
     </row>
     <row r="17">
@@ -15082,28 +15082,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1350.500659225735</v>
+        <v>1409.801559517674</v>
       </c>
       <c r="AB17" t="n">
-        <v>1847.814581836799</v>
+        <v>1928.95268978731</v>
       </c>
       <c r="AC17" t="n">
-        <v>1671.461751570348</v>
+        <v>1744.856152376113</v>
       </c>
       <c r="AD17" t="n">
-        <v>1350500.659225735</v>
+        <v>1409801.559517674</v>
       </c>
       <c r="AE17" t="n">
-        <v>1847814.581836799</v>
+        <v>1928952.68978731</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.489315861123603e-06</v>
+        <v>2.81594432131623e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.46041666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1671461.751570348</v>
+        <v>1744856.152376113</v>
       </c>
     </row>
     <row r="18">
@@ -15188,28 +15188,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1340.381689066095</v>
+        <v>1399.682589358034</v>
       </c>
       <c r="AB18" t="n">
-        <v>1833.969360446923</v>
+        <v>1915.107468397434</v>
       </c>
       <c r="AC18" t="n">
-        <v>1658.937898678031</v>
+        <v>1732.332299483795</v>
       </c>
       <c r="AD18" t="n">
-        <v>1340381.689066095</v>
+        <v>1399682.589358034</v>
       </c>
       <c r="AE18" t="n">
-        <v>1833969.360446923</v>
+        <v>1915107.468397434</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.491260137704704e-06</v>
+        <v>2.81962048883753e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.446875</v>
       </c>
       <c r="AH18" t="n">
-        <v>1658937.898678031</v>
+        <v>1732332.299483795</v>
       </c>
     </row>
     <row r="19">
@@ -15294,28 +15294,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1346.526875391049</v>
+        <v>1405.827775682988</v>
       </c>
       <c r="AB19" t="n">
-        <v>1842.377475483212</v>
+        <v>1923.515583433723</v>
       </c>
       <c r="AC19" t="n">
-        <v>1666.543555016121</v>
+        <v>1739.937955821885</v>
       </c>
       <c r="AD19" t="n">
-        <v>1346526.875391049</v>
+        <v>1405827.775682988</v>
       </c>
       <c r="AE19" t="n">
-        <v>1842377.475483212</v>
+        <v>1923515.583433723</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.491110577967696e-06</v>
+        <v>2.819337706720507e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.44791666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>1666543.55501612</v>
+        <v>1739937.955821885</v>
       </c>
     </row>
     <row r="20">
@@ -15400,28 +15400,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1352.570289855963</v>
+        <v>1411.871190147902</v>
       </c>
       <c r="AB20" t="n">
-        <v>1850.646341770736</v>
+        <v>1931.784449721247</v>
       </c>
       <c r="AC20" t="n">
-        <v>1674.02325231059</v>
+        <v>1747.417653116355</v>
       </c>
       <c r="AD20" t="n">
-        <v>1352570.289855963</v>
+        <v>1411871.190147902</v>
       </c>
       <c r="AE20" t="n">
-        <v>1850646.341770736</v>
+        <v>1931784.449721247</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.491260137704704e-06</v>
+        <v>2.81962048883753e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.446875</v>
       </c>
       <c r="AH20" t="n">
-        <v>1674023.25231059</v>
+        <v>1747417.653116355</v>
       </c>
     </row>
   </sheetData>
@@ -15697,28 +15697,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1080.4623768509</v>
+        <v>1148.97415888992</v>
       </c>
       <c r="AB2" t="n">
-        <v>1478.336290643327</v>
+        <v>1572.077133355617</v>
       </c>
       <c r="AC2" t="n">
-        <v>1337.245949922342</v>
+        <v>1422.040298172271</v>
       </c>
       <c r="AD2" t="n">
-        <v>1080462.3768509</v>
+        <v>1148974.15888992</v>
       </c>
       <c r="AE2" t="n">
-        <v>1478336.290643327</v>
+        <v>1572077.133355618</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.463573152443127e-06</v>
+        <v>3.355339142826423e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.73854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1337245.949922342</v>
+        <v>1422040.298172271</v>
       </c>
     </row>
     <row r="3">
@@ -15803,28 +15803,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>805.9560708622118</v>
+        <v>854.9541052947568</v>
       </c>
       <c r="AB3" t="n">
-        <v>1102.74465242609</v>
+        <v>1169.785924777416</v>
       </c>
       <c r="AC3" t="n">
-        <v>997.5002505103831</v>
+        <v>1058.143197921515</v>
       </c>
       <c r="AD3" t="n">
-        <v>805956.0708622119</v>
+        <v>854954.1052947568</v>
       </c>
       <c r="AE3" t="n">
-        <v>1102744.65242609</v>
+        <v>1169785.924777416</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.672092502155277e-06</v>
+        <v>3.833383670329515e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.15</v>
       </c>
       <c r="AH3" t="n">
-        <v>997500.2505103832</v>
+        <v>1058143.197921515</v>
       </c>
     </row>
     <row r="4">
@@ -15909,28 +15909,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>808.673061740506</v>
+        <v>857.671096173051</v>
       </c>
       <c r="AB4" t="n">
-        <v>1106.462159210949</v>
+        <v>1173.503431562276</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000.86296366525</v>
+        <v>1061.505911076382</v>
       </c>
       <c r="AD4" t="n">
-        <v>808673.061740506</v>
+        <v>857671.0961730509</v>
       </c>
       <c r="AE4" t="n">
-        <v>1106462.159210949</v>
+        <v>1173503.431562276</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.676209193179637e-06</v>
+        <v>3.842821459284511e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.12291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000862.96366525</v>
+        <v>1061505.911076382</v>
       </c>
     </row>
   </sheetData>
@@ -16206,28 +16206,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4027.960674288858</v>
+        <v>4153.138189912942</v>
       </c>
       <c r="AB2" t="n">
-        <v>5511.233495645768</v>
+        <v>5682.506894964884</v>
       </c>
       <c r="AC2" t="n">
-        <v>4985.24910588592</v>
+        <v>5140.176412357739</v>
       </c>
       <c r="AD2" t="n">
-        <v>4027960.674288858</v>
+        <v>4153138.189912942</v>
       </c>
       <c r="AE2" t="n">
-        <v>5511233.495645768</v>
+        <v>5682506.894964884</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.170979829612828e-07</v>
+        <v>1.60150075436377e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.82395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4985249.105885919</v>
+        <v>5140176.412357738</v>
       </c>
     </row>
     <row r="3">
@@ -16312,28 +16312,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2058.397857539145</v>
+        <v>2137.994300005151</v>
       </c>
       <c r="AB3" t="n">
-        <v>2816.390758789476</v>
+        <v>2925.298122918676</v>
       </c>
       <c r="AC3" t="n">
-        <v>2547.598377599865</v>
+        <v>2646.111775749018</v>
       </c>
       <c r="AD3" t="n">
-        <v>2058397.857539145</v>
+        <v>2137994.300005151</v>
       </c>
       <c r="AE3" t="n">
-        <v>2816390.758789476</v>
+        <v>2925298.122918676</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.200846379145573e-06</v>
+        <v>2.353642307507402e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.48854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2547598.377599865</v>
+        <v>2646111.775749018</v>
       </c>
     </row>
     <row r="4">
@@ -16418,28 +16418,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1708.424576723354</v>
+        <v>1776.711069377275</v>
       </c>
       <c r="AB4" t="n">
-        <v>2337.541876245843</v>
+        <v>2430.974468082377</v>
       </c>
       <c r="AC4" t="n">
-        <v>2114.450160337568</v>
+        <v>2198.965676742689</v>
       </c>
       <c r="AD4" t="n">
-        <v>1708424.576723353</v>
+        <v>1776711.069377275</v>
       </c>
       <c r="AE4" t="n">
-        <v>2337541.876245843</v>
+        <v>2430974.468082377</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.336277843114989e-06</v>
+        <v>2.619086105233538e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.12083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2114450.160337568</v>
+        <v>2198965.676742689</v>
       </c>
     </row>
     <row r="5">
@@ -16524,28 +16524,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1548.040078534515</v>
+        <v>1616.411822534457</v>
       </c>
       <c r="AB5" t="n">
-        <v>2118.09673015919</v>
+        <v>2211.645966648373</v>
       </c>
       <c r="AC5" t="n">
-        <v>1915.948551000228</v>
+        <v>2000.569579656061</v>
       </c>
       <c r="AD5" t="n">
-        <v>1548040.078534515</v>
+        <v>1616411.822534457</v>
       </c>
       <c r="AE5" t="n">
-        <v>2118096.73015919</v>
+        <v>2211645.966648373</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.406092685046409e-06</v>
+        <v>2.755922230582603e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.51875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1915948.551000228</v>
+        <v>2000569.579656061</v>
       </c>
     </row>
     <row r="6">
@@ -16630,28 +16630,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1458.584341407229</v>
+        <v>1515.560884249066</v>
       </c>
       <c r="AB6" t="n">
-        <v>1995.699444113046</v>
+        <v>2073.657263656914</v>
       </c>
       <c r="AC6" t="n">
-        <v>1805.232690148659</v>
+        <v>1875.750324809746</v>
       </c>
       <c r="AD6" t="n">
-        <v>1458584.341407229</v>
+        <v>1515560.884249066</v>
       </c>
       <c r="AE6" t="n">
-        <v>1995699.444113046</v>
+        <v>2073657.263656914</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.448696842483401e-06</v>
+        <v>2.839425790372454e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.18125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1805232.690148659</v>
+        <v>1875750.324809746</v>
       </c>
     </row>
     <row r="7">
@@ -16736,28 +16736,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1380.566908146098</v>
+        <v>1448.853311291468</v>
       </c>
       <c r="AB7" t="n">
-        <v>1888.952550038927</v>
+        <v>1982.385019405911</v>
       </c>
       <c r="AC7" t="n">
-        <v>1708.673569824766</v>
+        <v>1793.18897544866</v>
       </c>
       <c r="AD7" t="n">
-        <v>1380566.908146098</v>
+        <v>1448853.311291468</v>
       </c>
       <c r="AE7" t="n">
-        <v>1888952.550038927</v>
+        <v>1982385.019405911</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.478395360988749e-06</v>
+        <v>2.897634476211366e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.95625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1708673.569824766</v>
+        <v>1793188.97544866</v>
       </c>
     </row>
     <row r="8">
@@ -16842,28 +16842,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1328.537897697069</v>
+        <v>1396.824300842439</v>
       </c>
       <c r="AB8" t="n">
-        <v>1817.764162584622</v>
+        <v>1911.196631951607</v>
       </c>
       <c r="AC8" t="n">
-        <v>1644.279302155571</v>
+        <v>1728.794707779465</v>
       </c>
       <c r="AD8" t="n">
-        <v>1328537.897697069</v>
+        <v>1396824.300842439</v>
       </c>
       <c r="AE8" t="n">
-        <v>1817764.162584622</v>
+        <v>1911196.631951607</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.500319398209975e-06</v>
+        <v>2.940605286176217e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.79479166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1644279.302155571</v>
+        <v>1728794.707779465</v>
       </c>
     </row>
     <row r="9">
@@ -16948,28 +16948,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1293.581754908773</v>
+        <v>1361.868158054143</v>
       </c>
       <c r="AB9" t="n">
-        <v>1769.935625865496</v>
+        <v>1863.368095232481</v>
       </c>
       <c r="AC9" t="n">
-        <v>1601.015453853145</v>
+        <v>1685.530859477039</v>
       </c>
       <c r="AD9" t="n">
-        <v>1293581.754908773</v>
+        <v>1361868.158054143</v>
       </c>
       <c r="AE9" t="n">
-        <v>1769935.625865496</v>
+        <v>1863368.095232481</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.510737203130699e-06</v>
+        <v>2.961024039847458e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.72083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1601015.453853145</v>
+        <v>1685530.859477039</v>
       </c>
     </row>
     <row r="10">
@@ -17054,28 +17054,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1246.805421129799</v>
+        <v>1315.091824275169</v>
       </c>
       <c r="AB10" t="n">
-        <v>1705.934182362901</v>
+        <v>1799.366651729885</v>
       </c>
       <c r="AC10" t="n">
-        <v>1543.122218291847</v>
+        <v>1627.637623915742</v>
       </c>
       <c r="AD10" t="n">
-        <v>1246805.421129799</v>
+        <v>1315091.824275169</v>
       </c>
       <c r="AE10" t="n">
-        <v>1705934.182362901</v>
+        <v>1799366.651729885</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.526130676073262e-06</v>
+        <v>2.991195034078098e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.6125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1543122.218291847</v>
+        <v>1627637.623915742</v>
       </c>
     </row>
     <row r="11">
@@ -17160,28 +17160,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1212.526775679727</v>
+        <v>1269.588569867583</v>
       </c>
       <c r="AB11" t="n">
-        <v>1659.032627391005</v>
+        <v>1737.107091587522</v>
       </c>
       <c r="AC11" t="n">
-        <v>1500.696881899724</v>
+        <v>1571.320028811524</v>
       </c>
       <c r="AD11" t="n">
-        <v>1212526.775679727</v>
+        <v>1269588.569867583</v>
       </c>
       <c r="AE11" t="n">
-        <v>1659032.627391005</v>
+        <v>1737107.091587522</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.535771032865574e-06</v>
+        <v>3.010090000161934e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.546875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1500696.881899724</v>
+        <v>1571320.028811523</v>
       </c>
     </row>
     <row r="12">
@@ -17266,28 +17266,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1193.372323954673</v>
+        <v>1250.43411814253</v>
       </c>
       <c r="AB12" t="n">
-        <v>1632.824661506017</v>
+        <v>1710.899125702533</v>
       </c>
       <c r="AC12" t="n">
-        <v>1476.990167495688</v>
+        <v>1547.613314407487</v>
       </c>
       <c r="AD12" t="n">
-        <v>1193372.323954673</v>
+        <v>1250434.11814253</v>
       </c>
       <c r="AE12" t="n">
-        <v>1632824.661506017</v>
+        <v>1710899.125702533</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.541679638641507e-06</v>
+        <v>3.02167078582622e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.50625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1476990.167495687</v>
+        <v>1547613.314407487</v>
       </c>
     </row>
     <row r="13">
@@ -17372,28 +17372,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1194.843176678541</v>
+        <v>1251.904970866398</v>
       </c>
       <c r="AB13" t="n">
-        <v>1634.837147092256</v>
+        <v>1712.911611288772</v>
       </c>
       <c r="AC13" t="n">
-        <v>1478.810584282117</v>
+        <v>1549.433731193917</v>
       </c>
       <c r="AD13" t="n">
-        <v>1194843.176678541</v>
+        <v>1251904.970866398</v>
       </c>
       <c r="AE13" t="n">
-        <v>1634837.147092256</v>
+        <v>1712911.611288772</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.541990617892872e-06</v>
+        <v>3.022280300861182e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.503125</v>
       </c>
       <c r="AH13" t="n">
-        <v>1478810.584282117</v>
+        <v>1549433.731193917</v>
       </c>
     </row>
   </sheetData>
@@ -17669,28 +17669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5102.121552996885</v>
+        <v>5241.701398479798</v>
       </c>
       <c r="AB2" t="n">
-        <v>6980.947798527621</v>
+        <v>7171.927100945536</v>
       </c>
       <c r="AC2" t="n">
-        <v>6314.695938457653</v>
+        <v>6487.448444293931</v>
       </c>
       <c r="AD2" t="n">
-        <v>5102121.552996885</v>
+        <v>5241701.398479798</v>
       </c>
       <c r="AE2" t="n">
-        <v>6980947.798527621</v>
+        <v>7171927.100945536</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.22285921949092e-07</v>
+        <v>1.388741367666243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.97083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6314695.938457653</v>
+        <v>6487448.444293931</v>
       </c>
     </row>
     <row r="3">
@@ -17775,28 +17775,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2359.588324887647</v>
+        <v>2441.024214403659</v>
       </c>
       <c r="AB3" t="n">
-        <v>3228.492843801511</v>
+        <v>3339.91702053521</v>
       </c>
       <c r="AC3" t="n">
-        <v>2920.370018007138</v>
+        <v>3021.160027698183</v>
       </c>
       <c r="AD3" t="n">
-        <v>2359588.324887647</v>
+        <v>2441024.214403659</v>
       </c>
       <c r="AE3" t="n">
-        <v>3228492.843801511</v>
+        <v>3339917.02053521</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.128447969600701e-06</v>
+        <v>2.169670388167868e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.0625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2920370.018007138</v>
+        <v>3021160.027698183</v>
       </c>
     </row>
     <row r="4">
@@ -17881,28 +17881,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1912.835713592286</v>
+        <v>1982.625725842293</v>
       </c>
       <c r="AB4" t="n">
-        <v>2617.226211692817</v>
+        <v>2712.715985371319</v>
       </c>
       <c r="AC4" t="n">
-        <v>2367.441815348913</v>
+        <v>2453.818179048276</v>
       </c>
       <c r="AD4" t="n">
-        <v>1912835.713592286</v>
+        <v>1982625.725842293</v>
       </c>
       <c r="AE4" t="n">
-        <v>2617226.211692818</v>
+        <v>2712715.985371319</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.273636428494918e-06</v>
+        <v>2.448824685443955e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.46041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2367441.815348913</v>
+        <v>2453818.179048277</v>
       </c>
     </row>
     <row r="5">
@@ -17987,28 +17987,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1722.907422941087</v>
+        <v>1792.782686537114</v>
       </c>
       <c r="AB5" t="n">
-        <v>2357.357945379027</v>
+        <v>2452.964363710177</v>
       </c>
       <c r="AC5" t="n">
-        <v>2132.375011644709</v>
+        <v>2218.856887594784</v>
       </c>
       <c r="AD5" t="n">
-        <v>1722907.422941087</v>
+        <v>1792782.686537114</v>
       </c>
       <c r="AE5" t="n">
-        <v>2357357.945379027</v>
+        <v>2452964.363710177</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.348744414050899e-06</v>
+        <v>2.593235040698007e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.76666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2132375.011644709</v>
+        <v>2218856.887594785</v>
       </c>
     </row>
     <row r="6">
@@ -18093,28 +18093,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1622.885984760632</v>
+        <v>1692.590656156068</v>
       </c>
       <c r="AB6" t="n">
-        <v>2220.504201026105</v>
+        <v>2315.877207582409</v>
       </c>
       <c r="AC6" t="n">
-        <v>2008.582396577393</v>
+        <v>2094.853137244817</v>
       </c>
       <c r="AD6" t="n">
-        <v>1622885.984760632</v>
+        <v>1692590.656156068</v>
       </c>
       <c r="AE6" t="n">
-        <v>2220504.201026105</v>
+        <v>2315877.207582409</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.393230279735171e-06</v>
+        <v>2.67876815172069e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>2008582.396577393</v>
+        <v>2094853.137244818</v>
       </c>
     </row>
     <row r="7">
@@ -18199,28 +18199,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1546.977078851588</v>
+        <v>1605.206554690162</v>
       </c>
       <c r="AB7" t="n">
-        <v>2116.642287096773</v>
+        <v>2196.31442484228</v>
       </c>
       <c r="AC7" t="n">
-        <v>1914.632917942364</v>
+        <v>1986.701258681987</v>
       </c>
       <c r="AD7" t="n">
-        <v>1546977.078851588</v>
+        <v>1605206.554690162</v>
       </c>
       <c r="AE7" t="n">
-        <v>2116642.287096773</v>
+        <v>2196314.42484228</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.427204074418708e-06</v>
+        <v>2.744089671440068e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.11875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1914632.917942364</v>
+        <v>1986701.258681987</v>
       </c>
     </row>
     <row r="8">
@@ -18305,28 +18305,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1482.585196938285</v>
+        <v>1552.375119679741</v>
       </c>
       <c r="AB8" t="n">
-        <v>2028.538473493653</v>
+        <v>2124.028124702605</v>
       </c>
       <c r="AC8" t="n">
-        <v>1834.937608655047</v>
+        <v>1921.313861573184</v>
       </c>
       <c r="AD8" t="n">
-        <v>1482585.196938285</v>
+        <v>1552375.119679741</v>
       </c>
       <c r="AE8" t="n">
-        <v>2028538.473493653</v>
+        <v>2124028.124702605</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.448837611840511e-06</v>
+        <v>2.785684540499045e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.953125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1834937.608655047</v>
+        <v>1921313.861573184</v>
       </c>
     </row>
     <row r="9">
@@ -18411,28 +18411,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1433.906195292891</v>
+        <v>1503.696118034347</v>
       </c>
       <c r="AB9" t="n">
-        <v>1961.933715876441</v>
+        <v>2057.423367085393</v>
       </c>
       <c r="AC9" t="n">
-        <v>1774.689515624457</v>
+        <v>1861.065768542594</v>
       </c>
       <c r="AD9" t="n">
-        <v>1433906.195292891</v>
+        <v>1503696.118034347</v>
       </c>
       <c r="AE9" t="n">
-        <v>1961933.715876441</v>
+        <v>2057423.367085393</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.469100009566567e-06</v>
+        <v>2.824643115040199e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.803125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1774689.515624457</v>
+        <v>1861065.768542594</v>
       </c>
     </row>
     <row r="10">
@@ -18517,28 +18517,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1411.09053616425</v>
+        <v>1480.880458905707</v>
       </c>
       <c r="AB10" t="n">
-        <v>1930.716324500793</v>
+        <v>2026.205975709745</v>
       </c>
       <c r="AC10" t="n">
-        <v>1746.451468267817</v>
+        <v>1832.827721185954</v>
       </c>
       <c r="AD10" t="n">
-        <v>1411090.53616425</v>
+        <v>1480880.458905706</v>
       </c>
       <c r="AE10" t="n">
-        <v>1930716.324500793</v>
+        <v>2026205.975709745</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.47412752178431e-06</v>
+        <v>2.834309528272214e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.765625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1746451.468267817</v>
+        <v>1832827.721185954</v>
       </c>
     </row>
     <row r="11">
@@ -18623,28 +18623,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1366.216264508961</v>
+        <v>1436.006187250417</v>
       </c>
       <c r="AB11" t="n">
-        <v>1869.317366308881</v>
+        <v>1964.807017517834</v>
       </c>
       <c r="AC11" t="n">
-        <v>1690.912340471763</v>
+        <v>1777.2885933899</v>
       </c>
       <c r="AD11" t="n">
-        <v>1366216.264508961</v>
+        <v>1436006.187250417</v>
       </c>
       <c r="AE11" t="n">
-        <v>1869317.366308881</v>
+        <v>1964807.017517834</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.489819453857872e-06</v>
+        <v>2.864480454420627e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.65208333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1690912.340471763</v>
+        <v>1777288.5933899</v>
       </c>
     </row>
     <row r="12">
@@ -18729,28 +18729,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1333.2214717938</v>
+        <v>1403.011394535256</v>
       </c>
       <c r="AB12" t="n">
-        <v>1824.172435288476</v>
+        <v>1919.662086497428</v>
       </c>
       <c r="AC12" t="n">
-        <v>1650.075978306636</v>
+        <v>1736.452231224773</v>
       </c>
       <c r="AD12" t="n">
-        <v>1333221.4717938</v>
+        <v>1403011.394535256</v>
       </c>
       <c r="AE12" t="n">
-        <v>1824172.435288476</v>
+        <v>1919662.086497428</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.499112734017942e-06</v>
+        <v>2.882348672819201e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.58541666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1650075.978306636</v>
+        <v>1736452.231224773</v>
       </c>
     </row>
     <row r="13">
@@ -18835,28 +18835,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1300.724083863408</v>
+        <v>1359.038811048002</v>
       </c>
       <c r="AB13" t="n">
-        <v>1779.708075438542</v>
+        <v>1859.496857836699</v>
       </c>
       <c r="AC13" t="n">
-        <v>1609.855234554659</v>
+        <v>1682.029087544995</v>
       </c>
       <c r="AD13" t="n">
-        <v>1300724.083863408</v>
+        <v>1359038.811048002</v>
       </c>
       <c r="AE13" t="n">
-        <v>1779708.075438542</v>
+        <v>1859496.857836699</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.507187223337348e-06</v>
+        <v>2.897873518313044e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.52916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1609855.234554659</v>
+        <v>1682029.087544995</v>
       </c>
     </row>
     <row r="14">
@@ -18941,28 +18941,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1274.49478109645</v>
+        <v>1332.638916080452</v>
       </c>
       <c r="AB14" t="n">
-        <v>1743.819986237621</v>
+        <v>1823.37535686093</v>
       </c>
       <c r="AC14" t="n">
-        <v>1577.392254217824</v>
+        <v>1649.354971925508</v>
       </c>
       <c r="AD14" t="n">
-        <v>1274494.78109645</v>
+        <v>1332638.916080452</v>
       </c>
       <c r="AE14" t="n">
-        <v>1743819.986237621</v>
+        <v>1823375.35686093</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.513585875250839e-06</v>
+        <v>2.910176226062883e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.484375</v>
       </c>
       <c r="AH14" t="n">
-        <v>1577392.254217824</v>
+        <v>1649354.971925508</v>
       </c>
     </row>
     <row r="15">
@@ -19047,28 +19047,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1266.80899752805</v>
+        <v>1324.953132512052</v>
       </c>
       <c r="AB15" t="n">
-        <v>1733.303958086495</v>
+        <v>1812.859328709804</v>
       </c>
       <c r="AC15" t="n">
-        <v>1567.879861034103</v>
+        <v>1639.842578741788</v>
       </c>
       <c r="AD15" t="n">
-        <v>1266808.99752805</v>
+        <v>1324953.132512052</v>
       </c>
       <c r="AE15" t="n">
-        <v>1733303.958086495</v>
+        <v>1812859.328709804</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.515414061511837e-06</v>
+        <v>2.913691285419979e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.471875</v>
       </c>
       <c r="AH15" t="n">
-        <v>1567879.861034103</v>
+        <v>1639842.578741787</v>
       </c>
     </row>
     <row r="16">
@@ -19153,28 +19153,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1272.568818558806</v>
+        <v>1330.712953542808</v>
       </c>
       <c r="AB16" t="n">
-        <v>1741.184799326146</v>
+        <v>1820.740169949455</v>
       </c>
       <c r="AC16" t="n">
-        <v>1575.008565846673</v>
+        <v>1646.971283554357</v>
       </c>
       <c r="AD16" t="n">
-        <v>1272568.818558806</v>
+        <v>1330712.953542809</v>
       </c>
       <c r="AE16" t="n">
-        <v>1741184.799326146</v>
+        <v>1820740.169949455</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.515414061511837e-06</v>
+        <v>2.913691285419979e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.47291666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1575008.565846673</v>
+        <v>1646971.283554357</v>
       </c>
     </row>
   </sheetData>
@@ -19450,28 +19450,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8382.895552714226</v>
+        <v>8552.195528865401</v>
       </c>
       <c r="AB2" t="n">
-        <v>11469.84752247495</v>
+        <v>11701.49121883281</v>
       </c>
       <c r="AC2" t="n">
-        <v>10375.18137296161</v>
+        <v>10584.71732005304</v>
       </c>
       <c r="AD2" t="n">
-        <v>8382895.552714227</v>
+        <v>8552195.528865401</v>
       </c>
       <c r="AE2" t="n">
-        <v>11469847.52247495</v>
+        <v>11701491.21883281</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.540867845858207e-07</v>
+        <v>1.032221654182057e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.64583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>10375181.37296161</v>
+        <v>10584717.32005304</v>
       </c>
     </row>
     <row r="3">
@@ -19556,28 +19556,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3016.248918264768</v>
+        <v>3112.821169579131</v>
       </c>
       <c r="AB3" t="n">
-        <v>4126.964837480931</v>
+        <v>4259.099252196292</v>
       </c>
       <c r="AC3" t="n">
-        <v>3733.093105623124</v>
+        <v>3852.61679724986</v>
       </c>
       <c r="AD3" t="n">
-        <v>3016248.918264768</v>
+        <v>3112821.169579132</v>
       </c>
       <c r="AE3" t="n">
-        <v>4126964.837480932</v>
+        <v>4259099.252196291</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.000091354025522e-06</v>
+        <v>1.863094339196436e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.31770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3733093.105623124</v>
+        <v>3852616.79724986</v>
       </c>
     </row>
     <row r="4">
@@ -19662,28 +19662,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2352.089662648275</v>
+        <v>2424.646884793044</v>
       </c>
       <c r="AB4" t="n">
-        <v>3218.232843307973</v>
+        <v>3317.508835645176</v>
       </c>
       <c r="AC4" t="n">
-        <v>2911.089217560702</v>
+        <v>3000.89044852397</v>
       </c>
       <c r="AD4" t="n">
-        <v>2352089.662648275</v>
+        <v>2424646.884793044</v>
       </c>
       <c r="AE4" t="n">
-        <v>3218232.843307973</v>
+        <v>3317508.835645176</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.162288202061127e-06</v>
+        <v>2.165254765035822e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.17916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2911089.217560702</v>
+        <v>3000890.448523969</v>
       </c>
     </row>
     <row r="5">
@@ -19768,28 +19768,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2090.029596462034</v>
+        <v>2162.501477752231</v>
       </c>
       <c r="AB5" t="n">
-        <v>2859.670699477605</v>
+        <v>2958.829924692606</v>
       </c>
       <c r="AC5" t="n">
-        <v>2586.747741492497</v>
+        <v>2676.443349423824</v>
       </c>
       <c r="AD5" t="n">
-        <v>2090029.596462034</v>
+        <v>2162501.477752231</v>
       </c>
       <c r="AE5" t="n">
-        <v>2859670.699477606</v>
+        <v>2958829.924692606</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.246842315950949e-06</v>
+        <v>2.322772666085366e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.28541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2586747.741492497</v>
+        <v>2676443.349423824</v>
       </c>
     </row>
     <row r="6">
@@ -19874,28 +19874,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1934.744250918343</v>
+        <v>2007.301383554561</v>
       </c>
       <c r="AB6" t="n">
-        <v>2647.202438998781</v>
+        <v>2746.478308866431</v>
       </c>
       <c r="AC6" t="n">
-        <v>2394.557153592695</v>
+        <v>2484.358273774735</v>
       </c>
       <c r="AD6" t="n">
-        <v>1934744.250918343</v>
+        <v>2007301.383554561</v>
       </c>
       <c r="AE6" t="n">
-        <v>2647202.438998782</v>
+        <v>2746478.308866431</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.301251050106138e-06</v>
+        <v>2.424132011108551e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.771875</v>
       </c>
       <c r="AH6" t="n">
-        <v>2394557.153592695</v>
+        <v>2484358.273774735</v>
       </c>
     </row>
     <row r="7">
@@ -19980,28 +19980,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1846.997518195108</v>
+        <v>1919.384058630733</v>
       </c>
       <c r="AB7" t="n">
-        <v>2527.143488174212</v>
+        <v>2626.185946267015</v>
       </c>
       <c r="AC7" t="n">
-        <v>2285.956460531027</v>
+        <v>2375.546445430415</v>
       </c>
       <c r="AD7" t="n">
-        <v>1846997.518195108</v>
+        <v>1919384.058630733</v>
       </c>
       <c r="AE7" t="n">
-        <v>2527143.488174212</v>
+        <v>2626185.946267014</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.336543201990585e-06</v>
+        <v>2.489878613285752e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.46041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2285956.460531027</v>
+        <v>2375546.445430415</v>
       </c>
     </row>
     <row r="8">
@@ -20086,28 +20086,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1782.360889126814</v>
+        <v>1854.747429562439</v>
       </c>
       <c r="AB8" t="n">
-        <v>2438.704800716152</v>
+        <v>2537.747258808954</v>
       </c>
       <c r="AC8" t="n">
-        <v>2205.958237279487</v>
+        <v>2295.548222178875</v>
       </c>
       <c r="AD8" t="n">
-        <v>1782360.889126814</v>
+        <v>1854747.429562439</v>
       </c>
       <c r="AE8" t="n">
-        <v>2438704.800716152</v>
+        <v>2537747.258808955</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.362571164005365e-06</v>
+        <v>2.538366732391438e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.24166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2205958.237279487</v>
+        <v>2295548.222178875</v>
       </c>
     </row>
     <row r="9">
@@ -20192,28 +20192,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1730.199935864657</v>
+        <v>1790.664302570056</v>
       </c>
       <c r="AB9" t="n">
-        <v>2367.33588328402</v>
+        <v>2450.065897309943</v>
       </c>
       <c r="AC9" t="n">
-        <v>2141.400669160173</v>
+        <v>2216.235046759766</v>
       </c>
       <c r="AD9" t="n">
-        <v>1730199.935864657</v>
+        <v>1790664.302570056</v>
       </c>
       <c r="AE9" t="n">
-        <v>2367335.88328402</v>
+        <v>2450065.897309943</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.383305303237478e-06</v>
+        <v>2.576992861170544e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.07291666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2141400.669160173</v>
+        <v>2216235.046759766</v>
       </c>
     </row>
     <row r="10">
@@ -20298,28 +20298,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1675.291848521295</v>
+        <v>1747.763640302941</v>
       </c>
       <c r="AB10" t="n">
-        <v>2292.208215806982</v>
+        <v>2391.367318552434</v>
       </c>
       <c r="AC10" t="n">
-        <v>2073.443080824799</v>
+        <v>2163.1385779749</v>
       </c>
       <c r="AD10" t="n">
-        <v>1675291.848521295</v>
+        <v>1747763.640302941</v>
       </c>
       <c r="AE10" t="n">
-        <v>2292208.215806982</v>
+        <v>2391367.318552434</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.399039720952627e-06</v>
+        <v>2.606304887974546e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.94895833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2073443.080824799</v>
+        <v>2163138.5779749</v>
       </c>
     </row>
     <row r="11">
@@ -20404,28 +20404,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1618.417656215784</v>
+        <v>1690.88944799743</v>
       </c>
       <c r="AB11" t="n">
-        <v>2214.390436782301</v>
+        <v>2313.549539527753</v>
       </c>
       <c r="AC11" t="n">
-        <v>2003.052121412295</v>
+        <v>2092.747618562395</v>
       </c>
       <c r="AD11" t="n">
-        <v>1618417.656215784</v>
+        <v>1690889.44799743</v>
       </c>
       <c r="AE11" t="n">
-        <v>2214390.436782301</v>
+        <v>2313549.539527753</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.421538467778962e-06</v>
+        <v>2.648218346862511e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.775</v>
       </c>
       <c r="AH11" t="n">
-        <v>2003052.121412295</v>
+        <v>2092747.618562395</v>
       </c>
     </row>
     <row r="12">
@@ -20510,28 +20510,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1616.613345078189</v>
+        <v>1689.085136859835</v>
       </c>
       <c r="AB12" t="n">
-        <v>2211.921698683254</v>
+        <v>2311.080801428705</v>
       </c>
       <c r="AC12" t="n">
-        <v>2000.818996212526</v>
+        <v>2090.514493362626</v>
       </c>
       <c r="AD12" t="n">
-        <v>1616613.345078189</v>
+        <v>1689085.136859835</v>
       </c>
       <c r="AE12" t="n">
-        <v>2211921.698683254</v>
+        <v>2311080.801428705</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.418744505754777e-06</v>
+        <v>2.643013407523483e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.796875</v>
       </c>
       <c r="AH12" t="n">
-        <v>2000818.996212526</v>
+        <v>2090514.493362626</v>
       </c>
     </row>
     <row r="13">
@@ -20616,28 +20616,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1583.488910304654</v>
+        <v>1655.9607020863</v>
       </c>
       <c r="AB13" t="n">
-        <v>2166.599385679178</v>
+        <v>2265.758488424629</v>
       </c>
       <c r="AC13" t="n">
-        <v>1959.822181151293</v>
+        <v>2049.517678301393</v>
       </c>
       <c r="AD13" t="n">
-        <v>1583488.910304654</v>
+        <v>1655960.7020863</v>
       </c>
       <c r="AE13" t="n">
-        <v>2166599.385679178</v>
+        <v>2265758.488424629</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.429038050054407e-06</v>
+        <v>2.662189499825167e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.71875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1959822.181151293</v>
+        <v>2049517.678301393</v>
       </c>
     </row>
     <row r="14">
@@ -20722,28 +20722,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1560.812026070644</v>
+        <v>1633.283817852289</v>
       </c>
       <c r="AB14" t="n">
-        <v>2135.57187223668</v>
+        <v>2234.730974982131</v>
       </c>
       <c r="AC14" t="n">
-        <v>1931.755890044358</v>
+        <v>2021.451387194458</v>
       </c>
       <c r="AD14" t="n">
-        <v>1560812.026070644</v>
+        <v>1633283.817852289</v>
       </c>
       <c r="AE14" t="n">
-        <v>2135571.87223668</v>
+        <v>2234730.974982131</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.436096480431297e-06</v>
+        <v>2.675338820260607e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1931755.890044358</v>
+        <v>2021451.387194458</v>
       </c>
     </row>
     <row r="15">
@@ -20828,28 +20828,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1535.176736987217</v>
+        <v>1607.648528768862</v>
       </c>
       <c r="AB15" t="n">
-        <v>2100.496538763599</v>
+        <v>2199.655641509051</v>
       </c>
       <c r="AC15" t="n">
-        <v>1900.028097169408</v>
+        <v>1989.723594319509</v>
       </c>
       <c r="AD15" t="n">
-        <v>1535176.736987217</v>
+        <v>1607648.528768862</v>
       </c>
       <c r="AE15" t="n">
-        <v>2100496.538763599</v>
+        <v>2199655.641509051</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.44344901207389e-06</v>
+        <v>2.689036029047524e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.6125</v>
       </c>
       <c r="AH15" t="n">
-        <v>1900028.097169408</v>
+        <v>1989723.594319509</v>
       </c>
     </row>
     <row r="16">
@@ -20934,28 +20934,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1509.51062314646</v>
+        <v>1581.982414928106</v>
       </c>
       <c r="AB16" t="n">
-        <v>2065.379029497647</v>
+        <v>2164.538132243099</v>
       </c>
       <c r="AC16" t="n">
-        <v>1868.262153700065</v>
+        <v>1957.957650850166</v>
       </c>
       <c r="AD16" t="n">
-        <v>1509510.62314646</v>
+        <v>1581982.414928105</v>
       </c>
       <c r="AE16" t="n">
-        <v>2065379.029497647</v>
+        <v>2164538.132243099</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.44977218928652e-06</v>
+        <v>2.700815628604272e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.565625</v>
       </c>
       <c r="AH16" t="n">
-        <v>1868262.153700065</v>
+        <v>1957957.650850166</v>
       </c>
     </row>
     <row r="17">
@@ -21040,28 +21040,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1485.604205499696</v>
+        <v>1546.153823551115</v>
       </c>
       <c r="AB17" t="n">
-        <v>2032.669214196633</v>
+        <v>2115.515872875206</v>
       </c>
       <c r="AC17" t="n">
-        <v>1838.674117262866</v>
+        <v>1913.614007113171</v>
       </c>
       <c r="AD17" t="n">
-        <v>1485604.205499696</v>
+        <v>1546153.823551115</v>
       </c>
       <c r="AE17" t="n">
-        <v>2032669.214196634</v>
+        <v>2115515.872875206</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.454477809537779e-06</v>
+        <v>2.709581842227899e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.53125</v>
       </c>
       <c r="AH17" t="n">
-        <v>1838674.117262866</v>
+        <v>1913614.007113171</v>
       </c>
     </row>
     <row r="18">
@@ -21146,28 +21146,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1464.406181584714</v>
+        <v>1524.785207435541</v>
       </c>
       <c r="AB18" t="n">
-        <v>2003.665142685342</v>
+        <v>2086.278389589068</v>
       </c>
       <c r="AC18" t="n">
-        <v>1812.438153629143</v>
+        <v>1887.166908196797</v>
       </c>
       <c r="AD18" t="n">
-        <v>1464406.181584714</v>
+        <v>1524785.207435541</v>
       </c>
       <c r="AE18" t="n">
-        <v>2003665.142685342</v>
+        <v>2086278.389589068</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.459330480421891e-06</v>
+        <v>2.718622000027264e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.49583333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>1812438.153629143</v>
+        <v>1887166.908196797</v>
       </c>
     </row>
     <row r="19">
@@ -21252,28 +21252,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1448.035103460989</v>
+        <v>1508.414129311816</v>
       </c>
       <c r="AB19" t="n">
-        <v>1981.265511355468</v>
+        <v>2063.878758259194</v>
       </c>
       <c r="AC19" t="n">
-        <v>1792.176311675312</v>
+        <v>1866.905066242965</v>
       </c>
       <c r="AD19" t="n">
-        <v>1448035.103460989</v>
+        <v>1508414.129311816</v>
       </c>
       <c r="AE19" t="n">
-        <v>1981265.511355468</v>
+        <v>2063878.758259194</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.461095088016113e-06</v>
+        <v>2.721909330136124e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.48333333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>1792176.311675312</v>
+        <v>1866905.066242965</v>
       </c>
     </row>
     <row r="20">
@@ -21358,28 +21358,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1431.73618306562</v>
+        <v>1492.115208916447</v>
       </c>
       <c r="AB20" t="n">
-        <v>1958.964609412905</v>
+        <v>2041.577856316631</v>
       </c>
       <c r="AC20" t="n">
-        <v>1772.003776514634</v>
+        <v>1846.732531082288</v>
       </c>
       <c r="AD20" t="n">
-        <v>1431736.18306562</v>
+        <v>1492115.208916447</v>
       </c>
       <c r="AE20" t="n">
-        <v>1958964.609412905</v>
+        <v>2041577.856316631</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.464330201938854e-06</v>
+        <v>2.727936102002368e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.46041666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>1772003.776514634</v>
+        <v>1846732.531082288</v>
       </c>
     </row>
     <row r="21">
@@ -21464,28 +21464,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1420.568809161951</v>
+        <v>1480.947835012779</v>
       </c>
       <c r="AB21" t="n">
-        <v>1943.68491576814</v>
+        <v>2026.298162671865</v>
       </c>
       <c r="AC21" t="n">
-        <v>1758.182355386141</v>
+        <v>1832.911109953795</v>
       </c>
       <c r="AD21" t="n">
-        <v>1420568.809161951</v>
+        <v>1480947.835012779</v>
       </c>
       <c r="AE21" t="n">
-        <v>1943684.91576814</v>
+        <v>2026298.162671865</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.466977113330188e-06</v>
+        <v>2.732867097165658e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.44166666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>1758182.355386141</v>
+        <v>1832911.109953795</v>
       </c>
     </row>
     <row r="22">
@@ -21570,28 +21570,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1425.365203128866</v>
+        <v>1485.744228979693</v>
       </c>
       <c r="AB22" t="n">
-        <v>1950.24755359564</v>
+        <v>2032.860800499365</v>
       </c>
       <c r="AC22" t="n">
-        <v>1764.118664270104</v>
+        <v>1838.847418837758</v>
       </c>
       <c r="AD22" t="n">
-        <v>1425365.203128866</v>
+        <v>1485744.228979693</v>
       </c>
       <c r="AE22" t="n">
-        <v>1950247.55359564</v>
+        <v>2032860.800499365</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.46712416396304e-06</v>
+        <v>2.733141041341396e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10.440625</v>
       </c>
       <c r="AH22" t="n">
-        <v>1764118.664270104</v>
+        <v>1838847.418837758</v>
       </c>
     </row>
     <row r="23">
@@ -21676,28 +21676,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1430.963953754169</v>
+        <v>1491.342979604996</v>
       </c>
       <c r="AB23" t="n">
-        <v>1957.908011200625</v>
+        <v>2040.52125810435</v>
       </c>
       <c r="AC23" t="n">
-        <v>1771.048018552789</v>
+        <v>1845.776773120443</v>
       </c>
       <c r="AD23" t="n">
-        <v>1430963.953754169</v>
+        <v>1491342.979604996</v>
       </c>
       <c r="AE23" t="n">
-        <v>1957908.011200625</v>
+        <v>2040521.25810435</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.466977113330188e-06</v>
+        <v>2.732867097165658e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10.44166666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>1771048.018552789</v>
+        <v>1845776.773120443</v>
       </c>
     </row>
   </sheetData>
@@ -21973,28 +21973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3164.31139372007</v>
+        <v>3275.345546902017</v>
       </c>
       <c r="AB2" t="n">
-        <v>4329.550448454294</v>
+        <v>4481.472275318965</v>
       </c>
       <c r="AC2" t="n">
-        <v>3916.344230215872</v>
+        <v>4053.766851148196</v>
       </c>
       <c r="AD2" t="n">
-        <v>3164311.393720069</v>
+        <v>3275345.546902017</v>
       </c>
       <c r="AE2" t="n">
-        <v>4329550.448454294</v>
+        <v>4481472.275318965</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.228595731488445e-07</v>
+        <v>1.849869573380397e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.95729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3916344.230215872</v>
+        <v>4053766.851148196</v>
       </c>
     </row>
     <row r="3">
@@ -22079,28 +22079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1773.300141643721</v>
+        <v>1851.058185212912</v>
       </c>
       <c r="AB3" t="n">
-        <v>2426.307486277816</v>
+        <v>2532.699471931958</v>
       </c>
       <c r="AC3" t="n">
-        <v>2194.744105131405</v>
+        <v>2290.982188996805</v>
       </c>
       <c r="AD3" t="n">
-        <v>1773300.141643721</v>
+        <v>1851058.185212912</v>
       </c>
       <c r="AE3" t="n">
-        <v>2426307.486277816</v>
+        <v>2532699.471931958</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.280485554951741e-06</v>
+        <v>2.566729907970835e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.94270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2194744.105131405</v>
+        <v>2290982.188996805</v>
       </c>
     </row>
     <row r="4">
@@ -22185,28 +22185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1496.573996591217</v>
+        <v>1563.296897525872</v>
       </c>
       <c r="AB4" t="n">
-        <v>2047.678566321081</v>
+        <v>2138.971782986514</v>
       </c>
       <c r="AC4" t="n">
-        <v>1852.250997886314</v>
+        <v>1934.831318084033</v>
       </c>
       <c r="AD4" t="n">
-        <v>1496573.996591217</v>
+        <v>1563296.897525872</v>
       </c>
       <c r="AE4" t="n">
-        <v>2047678.566321081</v>
+        <v>2138971.782986514</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.404572861805059e-06</v>
+        <v>2.815462586342962e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.79791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1852250.997886314</v>
+        <v>1934831.318084033</v>
       </c>
     </row>
     <row r="5">
@@ -22291,28 +22291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1372.576096904386</v>
+        <v>1439.128405638448</v>
       </c>
       <c r="AB5" t="n">
-        <v>1878.019169568305</v>
+        <v>1969.078974458891</v>
       </c>
       <c r="AC5" t="n">
-        <v>1698.783655841164</v>
+        <v>1781.152840756232</v>
       </c>
       <c r="AD5" t="n">
-        <v>1372576.096904386</v>
+        <v>1439128.405638448</v>
       </c>
       <c r="AE5" t="n">
-        <v>1878019.169568304</v>
+        <v>1969078.974458891</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.468366464430932e-06</v>
+        <v>2.943336694070171e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.28541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1698783.655841164</v>
+        <v>1781152.840756232</v>
       </c>
     </row>
     <row r="6">
@@ -22397,28 +22397,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1279.229228366661</v>
+        <v>1345.866788446744</v>
       </c>
       <c r="AB6" t="n">
-        <v>1750.297865861796</v>
+        <v>1841.474315405032</v>
       </c>
       <c r="AC6" t="n">
-        <v>1583.251894102429</v>
+        <v>1665.72659126821</v>
       </c>
       <c r="AD6" t="n">
-        <v>1279229.228366661</v>
+        <v>1345866.788446744</v>
       </c>
       <c r="AE6" t="n">
-        <v>1750297.865861796</v>
+        <v>1841474.315405033</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.508615296012841e-06</v>
+        <v>3.024015370516515e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.984375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1583251.894102429</v>
+        <v>1665726.59126821</v>
       </c>
     </row>
     <row r="7">
@@ -22503,28 +22503,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1219.021640044317</v>
+        <v>1285.659200124399</v>
       </c>
       <c r="AB7" t="n">
-        <v>1667.919187347831</v>
+        <v>1759.095636891067</v>
       </c>
       <c r="AC7" t="n">
-        <v>1508.735321046635</v>
+        <v>1591.210018212415</v>
       </c>
       <c r="AD7" t="n">
-        <v>1219021.640044317</v>
+        <v>1285659.200124399</v>
       </c>
       <c r="AE7" t="n">
-        <v>1667919.187347831</v>
+        <v>1759095.636891067</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.535659965455231e-06</v>
+        <v>3.078226338879671e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.79166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1508735.321046635</v>
+        <v>1591210.018212415</v>
       </c>
     </row>
     <row r="8">
@@ -22609,28 +22609,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1190.720689366887</v>
+        <v>1257.358249446969</v>
       </c>
       <c r="AB8" t="n">
-        <v>1629.196578081145</v>
+        <v>1720.373027624382</v>
       </c>
       <c r="AC8" t="n">
-        <v>1473.708343260839</v>
+        <v>1556.18304042662</v>
       </c>
       <c r="AD8" t="n">
-        <v>1190720.689366887</v>
+        <v>1257358.249446969</v>
       </c>
       <c r="AE8" t="n">
-        <v>1629196.578081145</v>
+        <v>1720373.027624382</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.539955295307846e-06</v>
+        <v>3.086836316207937e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.76145833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1473708.343260839</v>
+        <v>1556183.04042662</v>
       </c>
     </row>
     <row r="9">
@@ -22715,28 +22715,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1126.719764677964</v>
+        <v>1193.357324758047</v>
       </c>
       <c r="AB9" t="n">
-        <v>1541.627689400239</v>
+        <v>1632.804138943475</v>
       </c>
       <c r="AC9" t="n">
-        <v>1394.496906411931</v>
+        <v>1476.971603577711</v>
       </c>
       <c r="AD9" t="n">
-        <v>1126719.764677964</v>
+        <v>1193357.324758047</v>
       </c>
       <c r="AE9" t="n">
-        <v>1541627.689400239</v>
+        <v>1632804.138943475</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.565727274423535e-06</v>
+        <v>3.138496180177532e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.58333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1394496.906411931</v>
+        <v>1476971.603577711</v>
       </c>
     </row>
     <row r="10">
@@ -22821,28 +22821,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1114.792753550363</v>
+        <v>1170.48051185048</v>
       </c>
       <c r="AB10" t="n">
-        <v>1525.30862659286</v>
+        <v>1601.503074269586</v>
       </c>
       <c r="AC10" t="n">
-        <v>1379.73531205494</v>
+        <v>1448.657868584978</v>
       </c>
       <c r="AD10" t="n">
-        <v>1114792.753550363</v>
+        <v>1170480.51185048</v>
       </c>
       <c r="AE10" t="n">
-        <v>1525308.62659286</v>
+        <v>1601503.074269586</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.571931639766201e-06</v>
+        <v>3.150932814096139e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.54270833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1379735.31205494</v>
+        <v>1448657.868584978</v>
       </c>
     </row>
     <row r="11">
@@ -22927,28 +22927,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1121.174167828501</v>
+        <v>1176.861926128618</v>
       </c>
       <c r="AB11" t="n">
-        <v>1534.039959136337</v>
+        <v>1610.234406813063</v>
       </c>
       <c r="AC11" t="n">
-        <v>1387.633338474969</v>
+        <v>1456.555895005007</v>
       </c>
       <c r="AD11" t="n">
-        <v>1121174.167828501</v>
+        <v>1176861.926128617</v>
       </c>
       <c r="AE11" t="n">
-        <v>1534039.959136337</v>
+        <v>1610234.406813062</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.571772553475364e-06</v>
+        <v>3.150613926046944e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.54375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1387633.338474969</v>
+        <v>1456555.895005007</v>
       </c>
     </row>
   </sheetData>
@@ -23224,28 +23224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2153.599662517681</v>
+        <v>2238.76165457266</v>
       </c>
       <c r="AB2" t="n">
-        <v>2946.650068368323</v>
+        <v>3063.17246298005</v>
       </c>
       <c r="AC2" t="n">
-        <v>2665.425921492596</v>
+        <v>2770.827582302672</v>
       </c>
       <c r="AD2" t="n">
-        <v>2153599.662517681</v>
+        <v>2238761.65457266</v>
       </c>
       <c r="AE2" t="n">
-        <v>2946650.068368324</v>
+        <v>3063172.46298005</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.109463129880687e-06</v>
+        <v>2.321066251223457e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.55833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2665425.921492596</v>
+        <v>2770827.582302671</v>
       </c>
     </row>
     <row r="3">
@@ -23330,28 +23330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1378.156648403411</v>
+        <v>1441.942891098623</v>
       </c>
       <c r="AB3" t="n">
-        <v>1885.654726325828</v>
+        <v>1972.929877631839</v>
       </c>
       <c r="AC3" t="n">
-        <v>1705.69048577832</v>
+        <v>1784.63621913513</v>
       </c>
       <c r="AD3" t="n">
-        <v>1378156.648403411</v>
+        <v>1441942.891098623</v>
       </c>
       <c r="AE3" t="n">
-        <v>1885654.726325828</v>
+        <v>1972929.877631838</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.419184801239462e-06</v>
+        <v>2.969023357054173e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.1625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1705690.48577832</v>
+        <v>1784636.21913513</v>
       </c>
     </row>
     <row r="4">
@@ -23436,28 +23436,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1184.004719769724</v>
+        <v>1247.705621610364</v>
       </c>
       <c r="AB4" t="n">
-        <v>1620.007492190639</v>
+        <v>1707.165876374452</v>
       </c>
       <c r="AC4" t="n">
-        <v>1465.396250830759</v>
+        <v>1544.23636115563</v>
       </c>
       <c r="AD4" t="n">
-        <v>1184004.719769723</v>
+        <v>1247705.621610364</v>
       </c>
       <c r="AE4" t="n">
-        <v>1620007.492190639</v>
+        <v>1707165.876374452</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.526236807498301e-06</v>
+        <v>3.192982848957138e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.31041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1465396.250830759</v>
+        <v>1544236.36115563</v>
       </c>
     </row>
     <row r="5">
@@ -23542,28 +23542,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1073.354015020834</v>
+        <v>1137.140168207494</v>
       </c>
       <c r="AB5" t="n">
-        <v>1468.610316388638</v>
+        <v>1555.8853452251</v>
       </c>
       <c r="AC5" t="n">
-        <v>1328.44820900003</v>
+        <v>1407.393831575613</v>
       </c>
       <c r="AD5" t="n">
-        <v>1073354.015020834</v>
+        <v>1137140.168207494</v>
       </c>
       <c r="AE5" t="n">
-        <v>1468610.316388638</v>
+        <v>1555885.3452251</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.581419962427392e-06</v>
+        <v>3.308429460108357e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.915625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1328448.20900003</v>
+        <v>1407393.831575613</v>
       </c>
     </row>
     <row r="6">
@@ -23648,28 +23648,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1005.967673877161</v>
+        <v>1069.753827063822</v>
       </c>
       <c r="AB6" t="n">
-        <v>1376.40935156031</v>
+        <v>1463.684380396772</v>
       </c>
       <c r="AC6" t="n">
-        <v>1245.046774850051</v>
+        <v>1323.992397425633</v>
       </c>
       <c r="AD6" t="n">
-        <v>1005967.673877161</v>
+        <v>1069753.827063822</v>
       </c>
       <c r="AE6" t="n">
-        <v>1376409.35156031</v>
+        <v>1463684.380396772</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.613568707341037e-06</v>
+        <v>3.375686644983241e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.69791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1245046.774850051</v>
+        <v>1323992.397425633</v>
       </c>
     </row>
     <row r="7">
@@ -23754,28 +23754,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>992.1175540662138</v>
+        <v>1055.903707252874</v>
       </c>
       <c r="AB7" t="n">
-        <v>1357.459006610809</v>
+        <v>1444.734035447271</v>
       </c>
       <c r="AC7" t="n">
-        <v>1227.905024225554</v>
+        <v>1306.850646801137</v>
       </c>
       <c r="AD7" t="n">
-        <v>992117.5540662138</v>
+        <v>1055903.707252875</v>
       </c>
       <c r="AE7" t="n">
-        <v>1357459.006610809</v>
+        <v>1444734.035447272</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.619865884179793e-06</v>
+        <v>3.388860732742239e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.65625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1227905.024225554</v>
+        <v>1306850.646801137</v>
       </c>
     </row>
     <row r="8">
@@ -23860,28 +23860,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>998.9551677420935</v>
+        <v>1062.741320928754</v>
       </c>
       <c r="AB8" t="n">
-        <v>1366.814531296373</v>
+        <v>1454.089560132835</v>
       </c>
       <c r="AC8" t="n">
-        <v>1236.36767076569</v>
+        <v>1315.313293341272</v>
       </c>
       <c r="AD8" t="n">
-        <v>998955.1677420936</v>
+        <v>1062741.320928754</v>
       </c>
       <c r="AE8" t="n">
-        <v>1366814.531296373</v>
+        <v>1454089.560132836</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.62003159935976e-06</v>
+        <v>3.389207419262213e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.65520833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1236367.67076569</v>
+        <v>1315313.293341272</v>
       </c>
     </row>
   </sheetData>
@@ -44738,28 +44738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1600.869325049849</v>
+        <v>1672.641770124086</v>
       </c>
       <c r="AB2" t="n">
-        <v>2190.380035903336</v>
+        <v>2288.582261630713</v>
       </c>
       <c r="AC2" t="n">
-        <v>1981.333239494409</v>
+        <v>2070.163182626055</v>
       </c>
       <c r="AD2" t="n">
-        <v>1600869.325049849</v>
+        <v>1672641.770124086</v>
       </c>
       <c r="AE2" t="n">
-        <v>2190380.035903336</v>
+        <v>2288582.261630713</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.263400215838839e-06</v>
+        <v>2.746449848839616e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.134375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1981333.239494409</v>
+        <v>2070163.182626055</v>
       </c>
     </row>
     <row r="3">
@@ -44844,28 +44844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1096.14262825536</v>
+        <v>1157.734939472724</v>
       </c>
       <c r="AB3" t="n">
-        <v>1499.790702378778</v>
+        <v>1584.064019847371</v>
       </c>
       <c r="AC3" t="n">
-        <v>1356.652782713218</v>
+        <v>1432.883173040953</v>
       </c>
       <c r="AD3" t="n">
-        <v>1096142.62825536</v>
+        <v>1157734.939472724</v>
       </c>
       <c r="AE3" t="n">
-        <v>1499790.702378778</v>
+        <v>1584064.019847371</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.534251279750014e-06</v>
+        <v>3.335240996894785e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.63854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1356652.782713218</v>
+        <v>1432883.173040953</v>
       </c>
     </row>
     <row r="4">
@@ -44950,28 +44950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>943.3048153967623</v>
+        <v>1004.811785759555</v>
       </c>
       <c r="AB4" t="n">
-        <v>1290.67126409722</v>
+        <v>1374.827814443615</v>
       </c>
       <c r="AC4" t="n">
-        <v>1167.491410120276</v>
+        <v>1243.616177416073</v>
       </c>
       <c r="AD4" t="n">
-        <v>943304.8153967622</v>
+        <v>1004811.785759555</v>
       </c>
       <c r="AE4" t="n">
-        <v>1290671.26409722</v>
+        <v>1374827.814443615</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.62647778125901e-06</v>
+        <v>3.535728109333823e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.978125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1167491.410120276</v>
+        <v>1243616.177416072</v>
       </c>
     </row>
     <row r="5">
@@ -45056,28 +45056,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>900.7537683368344</v>
+        <v>962.2607386996267</v>
       </c>
       <c r="AB5" t="n">
-        <v>1232.451044290117</v>
+        <v>1316.607594636513</v>
       </c>
       <c r="AC5" t="n">
-        <v>1114.827646378972</v>
+        <v>1190.952413674768</v>
       </c>
       <c r="AD5" t="n">
-        <v>900753.7683368344</v>
+        <v>962260.7386996266</v>
       </c>
       <c r="AE5" t="n">
-        <v>1232451.044290117</v>
+        <v>1316607.594636513</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.651505790962194e-06</v>
+        <v>3.590135392635123e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.8125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1114827.646378972</v>
+        <v>1190952.413674768</v>
       </c>
     </row>
     <row r="6">
@@ -45162,28 +45162,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>908.0295182626085</v>
+        <v>969.5364886254009</v>
       </c>
       <c r="AB6" t="n">
-        <v>1242.406046321994</v>
+        <v>1326.56259666839</v>
       </c>
       <c r="AC6" t="n">
-        <v>1123.83255698886</v>
+        <v>1199.957324284656</v>
       </c>
       <c r="AD6" t="n">
-        <v>908029.5182626084</v>
+        <v>969536.4886254009</v>
       </c>
       <c r="AE6" t="n">
-        <v>1242406.046321994</v>
+        <v>1326562.59666839</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.6513343662382e-06</v>
+        <v>3.589762740009772e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.81354166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1123832.55698886</v>
+        <v>1199957.324284656</v>
       </c>
     </row>
   </sheetData>
@@ -45459,28 +45459,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>811.5935477657971</v>
+        <v>878.009507443938</v>
       </c>
       <c r="AB2" t="n">
-        <v>1110.458097033503</v>
+        <v>1201.331343130483</v>
       </c>
       <c r="AC2" t="n">
-        <v>1004.477534790352</v>
+        <v>1086.677965821238</v>
       </c>
       <c r="AD2" t="n">
-        <v>811593.5477657971</v>
+        <v>878009.5074439379</v>
       </c>
       <c r="AE2" t="n">
-        <v>1110458.097033503</v>
+        <v>1201331.343130483</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.599065974374175e-06</v>
+        <v>3.803421536501261e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.98541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1004477.534790352</v>
+        <v>1086677.965821238</v>
       </c>
     </row>
     <row r="3">
@@ -45565,28 +45565,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>739.2215877139387</v>
+        <v>796.1252595595898</v>
       </c>
       <c r="AB3" t="n">
-        <v>1011.435588465011</v>
+        <v>1089.293702697057</v>
       </c>
       <c r="AC3" t="n">
-        <v>914.9055954606737</v>
+        <v>985.3330405449628</v>
       </c>
       <c r="AD3" t="n">
-        <v>739221.5877139387</v>
+        <v>796125.2595595898</v>
       </c>
       <c r="AE3" t="n">
-        <v>1011435.588465011</v>
+        <v>1089293.702697057</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.673950320429899e-06</v>
+        <v>3.981535972740591e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.44895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>914905.5954606737</v>
+        <v>985333.0405449629</v>
       </c>
     </row>
   </sheetData>
@@ -45862,28 +45862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4533.379377414861</v>
+        <v>4660.049855872979</v>
       </c>
       <c r="AB2" t="n">
-        <v>6202.769662762305</v>
+        <v>6376.085799695819</v>
       </c>
       <c r="AC2" t="n">
-        <v>5610.786031789935</v>
+        <v>5767.561119865233</v>
       </c>
       <c r="AD2" t="n">
-        <v>4533379.377414861</v>
+        <v>4660049.855872978</v>
       </c>
       <c r="AE2" t="n">
-        <v>6202769.662762305</v>
+        <v>6376085.79969582</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.685793257268632e-07</v>
+        <v>1.491488280624415e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.85520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5610786.031789935</v>
+        <v>5767561.119865233</v>
       </c>
     </row>
     <row r="3">
@@ -45968,28 +45968,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2200.674959284979</v>
+        <v>2281.337753393055</v>
       </c>
       <c r="AB3" t="n">
-        <v>3011.060566221034</v>
+        <v>3121.426959711031</v>
       </c>
       <c r="AC3" t="n">
-        <v>2723.689171830832</v>
+        <v>2823.522351626346</v>
       </c>
       <c r="AD3" t="n">
-        <v>2200674.959284979</v>
+        <v>2281337.753393055</v>
       </c>
       <c r="AE3" t="n">
-        <v>3011060.566221034</v>
+        <v>3121426.959711032</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.163870674634233e-06</v>
+        <v>2.258582052981596e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.771875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2723689.171830832</v>
+        <v>2823522.351626346</v>
       </c>
     </row>
     <row r="4">
@@ -46074,28 +46074,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1808.388235412726</v>
+        <v>1877.442521873627</v>
       </c>
       <c r="AB4" t="n">
-        <v>2474.316564150016</v>
+        <v>2568.79968534593</v>
       </c>
       <c r="AC4" t="n">
-        <v>2238.171263992646</v>
+        <v>2323.637048709516</v>
       </c>
       <c r="AD4" t="n">
-        <v>1808388.235412726</v>
+        <v>1877442.521873627</v>
       </c>
       <c r="AE4" t="n">
-        <v>2474316.564150016</v>
+        <v>2568799.685345931</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.304969221519425e-06</v>
+        <v>2.532394816411544e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.28333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2238171.263992646</v>
+        <v>2323637.048709516</v>
       </c>
     </row>
     <row r="5">
@@ -46180,28 +46180,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1636.433119543996</v>
+        <v>1705.572657350917</v>
       </c>
       <c r="AB5" t="n">
-        <v>2239.039988494109</v>
+        <v>2333.639754342673</v>
       </c>
       <c r="AC5" t="n">
-        <v>2025.349154504591</v>
+        <v>2110.920451472173</v>
       </c>
       <c r="AD5" t="n">
-        <v>1636433.119543996</v>
+        <v>1705572.657350917</v>
       </c>
       <c r="AE5" t="n">
-        <v>2239039.988494109</v>
+        <v>2333639.754342673</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.376364778503862e-06</v>
+        <v>2.670943477514592e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.64479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2025349.154504591</v>
+        <v>2110920.451472173</v>
       </c>
     </row>
     <row r="6">
@@ -46286,28 +46286,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1541.597906899308</v>
+        <v>1610.566852505637</v>
       </c>
       <c r="AB6" t="n">
-        <v>2109.282266719345</v>
+        <v>2203.648620793062</v>
       </c>
       <c r="AC6" t="n">
-        <v>1907.975327579904</v>
+        <v>1993.335489264836</v>
       </c>
       <c r="AD6" t="n">
-        <v>1541597.906899308</v>
+        <v>1610566.852505637</v>
       </c>
       <c r="AE6" t="n">
-        <v>2109282.266719345</v>
+        <v>2203648.620793062</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.420217652944734e-06</v>
+        <v>2.756043409442112e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.28541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1907975.327579904</v>
+        <v>1993335.489264836</v>
       </c>
     </row>
     <row r="7">
@@ -46392,28 +46392,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1469.50944451997</v>
+        <v>1527.125815534289</v>
       </c>
       <c r="AB7" t="n">
-        <v>2010.647652173431</v>
+        <v>2089.480912850116</v>
       </c>
       <c r="AC7" t="n">
-        <v>1818.754262211701</v>
+        <v>1890.06378713258</v>
       </c>
       <c r="AD7" t="n">
-        <v>1469509.44451997</v>
+        <v>1527125.815534289</v>
       </c>
       <c r="AE7" t="n">
-        <v>2010647.652173431</v>
+        <v>2089480.912850116</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.452684167004468e-06</v>
+        <v>2.819047218693713e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.03333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1818754.262211701</v>
+        <v>1890063.78713258</v>
       </c>
     </row>
     <row r="8">
@@ -46498,28 +46498,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1408.160435452262</v>
+        <v>1477.214632404612</v>
       </c>
       <c r="AB8" t="n">
-        <v>1926.70723143973</v>
+        <v>2021.190230166096</v>
       </c>
       <c r="AC8" t="n">
-        <v>1742.824997421704</v>
+        <v>1828.290671357348</v>
       </c>
       <c r="AD8" t="n">
-        <v>1408160.435452262</v>
+        <v>1477214.632404612</v>
       </c>
       <c r="AE8" t="n">
-        <v>1926707.23143973</v>
+        <v>2021190.230166096</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.473302711478421e-06</v>
+        <v>2.859059116512266e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.87916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1742824.997421704</v>
+        <v>1828290.671357348</v>
       </c>
     </row>
     <row r="9">
@@ -46604,28 +46604,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1343.240959030658</v>
+        <v>1412.295155983008</v>
       </c>
       <c r="AB9" t="n">
-        <v>1837.881539754525</v>
+        <v>1932.364538480892</v>
       </c>
       <c r="AC9" t="n">
-        <v>1662.476705083295</v>
+        <v>1747.942379018938</v>
       </c>
       <c r="AD9" t="n">
-        <v>1343240.959030658</v>
+        <v>1412295.155983008</v>
       </c>
       <c r="AE9" t="n">
-        <v>1837881.539754525</v>
+        <v>1932364.538480892</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.501768612431268e-06</v>
+        <v>2.914299423202059e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.67291666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1662476.705083295</v>
+        <v>1747942.379018938</v>
       </c>
     </row>
     <row r="10">
@@ -46710,28 +46710,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1328.950948690565</v>
+        <v>1398.005145642915</v>
       </c>
       <c r="AB10" t="n">
-        <v>1818.329317176447</v>
+        <v>1912.812315902814</v>
       </c>
       <c r="AC10" t="n">
-        <v>1644.790519186352</v>
+        <v>1730.256193121995</v>
       </c>
       <c r="AD10" t="n">
-        <v>1328950.948690565</v>
+        <v>1398005.145642915</v>
       </c>
       <c r="AE10" t="n">
-        <v>1818329.317176447</v>
+        <v>1912812.315902814</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.501307003226627e-06</v>
+        <v>2.913403634444928e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.67604166666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1644790.519186352</v>
+        <v>1730256.193121995</v>
       </c>
     </row>
     <row r="11">
@@ -46816,28 +46816,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1292.354902571329</v>
+        <v>1361.409099523679</v>
       </c>
       <c r="AB11" t="n">
-        <v>1768.2569923725</v>
+        <v>1862.739991098867</v>
       </c>
       <c r="AC11" t="n">
-        <v>1599.497026784744</v>
+        <v>1684.962700720387</v>
       </c>
       <c r="AD11" t="n">
-        <v>1292354.902571329</v>
+        <v>1361409.099523679</v>
       </c>
       <c r="AE11" t="n">
-        <v>1768256.9923725</v>
+        <v>1862739.991098867</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.511924014933365e-06</v>
+        <v>2.934006775858959e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.60104166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1599497.026784744</v>
+        <v>1684962.700720387</v>
       </c>
     </row>
     <row r="12">
@@ -46922,28 +46922,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1256.209056464109</v>
+        <v>1313.910678824448</v>
       </c>
       <c r="AB12" t="n">
-        <v>1718.800651086415</v>
+        <v>1797.75055641575</v>
       </c>
       <c r="AC12" t="n">
-        <v>1554.760729298592</v>
+        <v>1626.175766470183</v>
       </c>
       <c r="AD12" t="n">
-        <v>1256209.056464109</v>
+        <v>1313910.678824448</v>
       </c>
       <c r="AE12" t="n">
-        <v>1718800.651086415</v>
+        <v>1797750.55641575</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.521463938495941e-06</v>
+        <v>2.952519743506349e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.534375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1554760.729298592</v>
+        <v>1626175.766470183</v>
       </c>
     </row>
     <row r="13">
@@ -47028,28 +47028,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1232.934828207659</v>
+        <v>1290.636450567999</v>
       </c>
       <c r="AB13" t="n">
-        <v>1686.955825199457</v>
+        <v>1765.905730528791</v>
       </c>
       <c r="AC13" t="n">
-        <v>1525.955128899791</v>
+        <v>1597.370166071382</v>
       </c>
       <c r="AD13" t="n">
-        <v>1232934.828207659</v>
+        <v>1290636.450567998</v>
       </c>
       <c r="AE13" t="n">
-        <v>1686955.825199457</v>
+        <v>1765905.730528791</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.526080030542348e-06</v>
+        <v>2.961477631077666e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.503125</v>
       </c>
       <c r="AH13" t="n">
-        <v>1525955.128899791</v>
+        <v>1597370.166071382</v>
       </c>
     </row>
     <row r="14">
@@ -47134,28 +47134,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1229.585041421817</v>
+        <v>1287.116071581564</v>
       </c>
       <c r="AB14" t="n">
-        <v>1682.372499136905</v>
+        <v>1761.088992691393</v>
       </c>
       <c r="AC14" t="n">
-        <v>1521.809229043911</v>
+        <v>1593.01313093285</v>
       </c>
       <c r="AD14" t="n">
-        <v>1229585.041421817</v>
+        <v>1287116.071581564</v>
       </c>
       <c r="AE14" t="n">
-        <v>1682372.499136905</v>
+        <v>1761088.992691393</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.529003555505073e-06</v>
+        <v>2.967150959872834e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.48333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1521809.229043911</v>
+        <v>1593013.13093285</v>
       </c>
     </row>
     <row r="15">
@@ -47240,28 +47240,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1236.095457386796</v>
+        <v>1293.626487546544</v>
       </c>
       <c r="AB15" t="n">
-        <v>1691.280337479471</v>
+        <v>1769.996831033959</v>
       </c>
       <c r="AC15" t="n">
-        <v>1529.866915797292</v>
+        <v>1601.070817686232</v>
       </c>
       <c r="AD15" t="n">
-        <v>1236095.457386796</v>
+        <v>1293626.487546544</v>
       </c>
       <c r="AE15" t="n">
-        <v>1691280.337479471</v>
+        <v>1769996.831033959</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.529003555505073e-06</v>
+        <v>2.967150959872834e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.48333333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1529866.915797292</v>
+        <v>1601070.817686232</v>
       </c>
     </row>
   </sheetData>
@@ -47537,28 +47537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7382.970929618449</v>
+        <v>7538.714477426047</v>
       </c>
       <c r="AB2" t="n">
-        <v>10101.70653959424</v>
+        <v>10314.80173262501</v>
       </c>
       <c r="AC2" t="n">
-        <v>9137.613845289154</v>
+        <v>9330.371532178044</v>
       </c>
       <c r="AD2" t="n">
-        <v>7382970.929618449</v>
+        <v>7538714.477426047</v>
       </c>
       <c r="AE2" t="n">
-        <v>10101706.53959423</v>
+        <v>10314801.73262501</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.936881867883815e-07</v>
+        <v>1.11399190028385e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>9137613.845289154</v>
+        <v>9330371.532178044</v>
       </c>
     </row>
     <row r="3">
@@ -47643,28 +47643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2834.794174299675</v>
+        <v>2930.603479078099</v>
       </c>
       <c r="AB3" t="n">
-        <v>3878.690451569554</v>
+        <v>4009.780969175614</v>
       </c>
       <c r="AC3" t="n">
-        <v>3508.513678647847</v>
+        <v>3627.093101240278</v>
       </c>
       <c r="AD3" t="n">
-        <v>2834794.174299675</v>
+        <v>2930603.479078099</v>
       </c>
       <c r="AE3" t="n">
-        <v>3878690.451569554</v>
+        <v>4009780.969175614</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.030206174277142e-06</v>
+        <v>1.933070859933115e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.99270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3508513.678647847</v>
+        <v>3627093.101240278</v>
       </c>
     </row>
     <row r="4">
@@ -47749,28 +47749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2229.302315397034</v>
+        <v>2313.124789471334</v>
       </c>
       <c r="AB4" t="n">
-        <v>3050.229777803366</v>
+        <v>3164.919384818395</v>
       </c>
       <c r="AC4" t="n">
-        <v>2759.120128834078</v>
+        <v>2862.863920723463</v>
       </c>
       <c r="AD4" t="n">
-        <v>2229302.315397034</v>
+        <v>2313124.789471334</v>
       </c>
       <c r="AE4" t="n">
-        <v>3050229.777803366</v>
+        <v>3164919.384818395</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.188859111306005e-06</v>
+        <v>2.230765998120857e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.99166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2759120.128834078</v>
+        <v>2862863.920723463</v>
       </c>
     </row>
     <row r="5">
@@ -47855,28 +47855,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1999.544283489895</v>
+        <v>2071.380016368621</v>
       </c>
       <c r="AB5" t="n">
-        <v>2735.864702338854</v>
+        <v>2834.153521232392</v>
       </c>
       <c r="AC5" t="n">
-        <v>2474.757614957859</v>
+        <v>2563.665886925422</v>
       </c>
       <c r="AD5" t="n">
-        <v>1999544.283489895</v>
+        <v>2071380.016368621</v>
       </c>
       <c r="AE5" t="n">
-        <v>2735864.702338854</v>
+        <v>2834153.521232392</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.271002781505996e-06</v>
+        <v>2.384899742565726e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.15208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2474757.614957859</v>
+        <v>2563665.886925422</v>
       </c>
     </row>
     <row r="6">
@@ -47961,28 +47961,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1856.733691908425</v>
+        <v>1928.654676133172</v>
       </c>
       <c r="AB6" t="n">
-        <v>2540.464950578442</v>
+        <v>2638.87041412463</v>
       </c>
       <c r="AC6" t="n">
-        <v>2298.006541260187</v>
+        <v>2387.020325478463</v>
       </c>
       <c r="AD6" t="n">
-        <v>1856733.691908424</v>
+        <v>1928654.676133171</v>
       </c>
       <c r="AE6" t="n">
-        <v>2540464.950578442</v>
+        <v>2638870.41412463</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.322750328256531e-06</v>
+        <v>2.481998437170887e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.67604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2298006.541260187</v>
+        <v>2387020.325478463</v>
       </c>
     </row>
     <row r="7">
@@ -48067,28 +48067,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1771.975445423232</v>
+        <v>1843.725837447387</v>
       </c>
       <c r="AB7" t="n">
-        <v>2424.494978467471</v>
+        <v>2522.667030238813</v>
       </c>
       <c r="AC7" t="n">
-        <v>2193.104580522609</v>
+        <v>2281.907229458233</v>
       </c>
       <c r="AD7" t="n">
-        <v>1771975.445423232</v>
+        <v>1843725.837447386</v>
       </c>
       <c r="AE7" t="n">
-        <v>2424494.978467471</v>
+        <v>2522667.030238813</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.357594664893712e-06</v>
+        <v>2.547380079670063e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.37708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2193104.580522609</v>
+        <v>2281907.229458233</v>
       </c>
     </row>
     <row r="8">
@@ -48173,28 +48173,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1709.170080768792</v>
+        <v>1769.104323797965</v>
       </c>
       <c r="AB8" t="n">
-        <v>2338.561907770129</v>
+        <v>2420.566583194834</v>
       </c>
       <c r="AC8" t="n">
-        <v>2115.3728414848</v>
+        <v>2189.551105781256</v>
       </c>
       <c r="AD8" t="n">
-        <v>1709170.080768792</v>
+        <v>1769104.323797965</v>
       </c>
       <c r="AE8" t="n">
-        <v>2338561.907770129</v>
+        <v>2420566.583194835</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.383542575155442e-06</v>
+        <v>2.596068536850302e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.16354166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2115372.8414848</v>
+        <v>2189551.105781255</v>
       </c>
     </row>
     <row r="9">
@@ -48279,28 +48279,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1658.621362038552</v>
+        <v>1718.555605067725</v>
       </c>
       <c r="AB9" t="n">
-        <v>2269.398920751334</v>
+        <v>2351.403596176039</v>
       </c>
       <c r="AC9" t="n">
-        <v>2052.810672876216</v>
+        <v>2126.988937172672</v>
       </c>
       <c r="AD9" t="n">
-        <v>1658621.362038552</v>
+        <v>1718555.605067725</v>
       </c>
       <c r="AE9" t="n">
-        <v>2269398.920751334</v>
+        <v>2351403.596176039</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.403559534500205e-06</v>
+        <v>2.633628203817914e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.00416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2052810.672876216</v>
+        <v>2126988.937172672</v>
       </c>
     </row>
     <row r="10">
@@ -48385,28 +48385,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1603.869205090394</v>
+        <v>1675.704848460569</v>
       </c>
       <c r="AB10" t="n">
-        <v>2194.484604120177</v>
+        <v>2292.773300544168</v>
       </c>
       <c r="AC10" t="n">
-        <v>1985.046073481433</v>
+        <v>2073.954234667769</v>
       </c>
       <c r="AD10" t="n">
-        <v>1603869.205090394</v>
+        <v>1675704.848460569</v>
       </c>
       <c r="AE10" t="n">
-        <v>2194484.604120177</v>
+        <v>2292773.300544168</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.420166197067712e-06</v>
+        <v>2.664788816413266e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1985046.073481433</v>
+        <v>2073954.23466777</v>
       </c>
     </row>
     <row r="11">
@@ -48491,28 +48491,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1606.860042202451</v>
+        <v>1678.695685572627</v>
       </c>
       <c r="AB11" t="n">
-        <v>2198.576799403315</v>
+        <v>2296.865495827305</v>
       </c>
       <c r="AC11" t="n">
-        <v>1988.74771539018</v>
+        <v>2077.655876576517</v>
       </c>
       <c r="AD11" t="n">
-        <v>1606860.042202451</v>
+        <v>1678695.685572627</v>
       </c>
       <c r="AE11" t="n">
-        <v>2198576.799403315</v>
+        <v>2296865.495827306</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.415273162561214e-06</v>
+        <v>2.65560756448785e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.91354166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1988747.71539018</v>
+        <v>2077655.876576517</v>
       </c>
     </row>
     <row r="12">
@@ -48597,28 +48597,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1548.630633029154</v>
+        <v>1620.46627639933</v>
       </c>
       <c r="AB12" t="n">
-        <v>2118.904752872181</v>
+        <v>2217.193449296172</v>
       </c>
       <c r="AC12" t="n">
-        <v>1916.679457159558</v>
+        <v>2005.587618345895</v>
       </c>
       <c r="AD12" t="n">
-        <v>1548630.633029154</v>
+        <v>1620466.27639933</v>
       </c>
       <c r="AE12" t="n">
-        <v>2118904.752872181</v>
+        <v>2217193.449296172</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.438255597364461e-06</v>
+        <v>2.698731626561775e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.73854166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1916679.457159558</v>
+        <v>2005587.618345895</v>
       </c>
     </row>
     <row r="13">
@@ -48703,28 +48703,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1519.108201671804</v>
+        <v>1590.943845041979</v>
       </c>
       <c r="AB13" t="n">
-        <v>2078.510859851303</v>
+        <v>2176.799556275294</v>
       </c>
       <c r="AC13" t="n">
-        <v>1880.140700595408</v>
+        <v>1969.048861781745</v>
       </c>
       <c r="AD13" t="n">
-        <v>1519108.201671804</v>
+        <v>1590943.845041979</v>
       </c>
       <c r="AE13" t="n">
-        <v>2078510.859851304</v>
+        <v>2176799.556275295</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.446558928648214e-06</v>
+        <v>2.714311932859452e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.67708333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1880140.700595408</v>
+        <v>1969048.861781745</v>
       </c>
     </row>
     <row r="14">
@@ -48809,28 +48809,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1489.942212663612</v>
+        <v>1561.777856033787</v>
       </c>
       <c r="AB14" t="n">
-        <v>2038.604666977673</v>
+        <v>2136.893363401663</v>
       </c>
       <c r="AC14" t="n">
-        <v>1844.043098760943</v>
+        <v>1932.95125994728</v>
       </c>
       <c r="AD14" t="n">
-        <v>1489942.212663612</v>
+        <v>1561777.856033787</v>
       </c>
       <c r="AE14" t="n">
-        <v>2038604.666977673</v>
+        <v>2136893.363401663</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.455307081250741e-06</v>
+        <v>2.730726898423075e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.6125</v>
       </c>
       <c r="AH14" t="n">
-        <v>1844043.098760943</v>
+        <v>1932951.25994728</v>
       </c>
     </row>
     <row r="15">
@@ -48915,28 +48915,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1466.156741490208</v>
+        <v>1537.992384860383</v>
       </c>
       <c r="AB15" t="n">
-        <v>2006.060335977292</v>
+        <v>2104.349032401283</v>
       </c>
       <c r="AC15" t="n">
-        <v>1814.604753034984</v>
+        <v>1903.51291422132</v>
       </c>
       <c r="AD15" t="n">
-        <v>1466156.741490208</v>
+        <v>1537992.384860384</v>
       </c>
       <c r="AE15" t="n">
-        <v>2006060.335977292</v>
+        <v>2104349.032401283</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.461534579713556e-06</v>
+        <v>2.742412128146332e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.56770833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1814604.753034984</v>
+        <v>1903512.91422132</v>
       </c>
     </row>
     <row r="16">
@@ -49021,28 +49021,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1441.008423697198</v>
+        <v>1501.027918072392</v>
       </c>
       <c r="AB16" t="n">
-        <v>1971.651298107417</v>
+        <v>2053.772618184772</v>
       </c>
       <c r="AC16" t="n">
-        <v>1783.479665446021</v>
+        <v>1857.76344199319</v>
       </c>
       <c r="AD16" t="n">
-        <v>1441008.423697199</v>
+        <v>1501027.918072392</v>
       </c>
       <c r="AE16" t="n">
-        <v>1971651.298107417</v>
+        <v>2053772.618184772</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.467465530630522e-06</v>
+        <v>2.753540918358958e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.525</v>
       </c>
       <c r="AH16" t="n">
-        <v>1783479.665446021</v>
+        <v>1857763.44199319</v>
       </c>
     </row>
     <row r="17">
@@ -49127,28 +49127,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1416.316589610387</v>
+        <v>1476.165491784988</v>
       </c>
       <c r="AB17" t="n">
-        <v>1937.866841383002</v>
+        <v>2019.75474968551</v>
       </c>
       <c r="AC17" t="n">
-        <v>1752.919549854601</v>
+        <v>1826.992191119119</v>
       </c>
       <c r="AD17" t="n">
-        <v>1416316.589610387</v>
+        <v>1476165.491784988</v>
       </c>
       <c r="AE17" t="n">
-        <v>1937866.841383002</v>
+        <v>2019754.74968551</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.472210291364096e-06</v>
+        <v>2.762443950529059e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.490625</v>
       </c>
       <c r="AH17" t="n">
-        <v>1752919.549854602</v>
+        <v>1826992.191119119</v>
       </c>
     </row>
     <row r="18">
@@ -49233,28 +49233,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1388.53521871289</v>
+        <v>1448.384120887491</v>
       </c>
       <c r="AB18" t="n">
-        <v>1899.855144093463</v>
+        <v>1981.743052395971</v>
       </c>
       <c r="AC18" t="n">
-        <v>1718.535635604624</v>
+        <v>1792.608276869141</v>
       </c>
       <c r="AD18" t="n">
-        <v>1388535.21871289</v>
+        <v>1448384.120887491</v>
       </c>
       <c r="AE18" t="n">
-        <v>1899855.144093463</v>
+        <v>1981743.052395971</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.480365348874925e-06</v>
+        <v>2.777746037071419e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.43333333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>1718535.635604624</v>
+        <v>1792608.276869141</v>
       </c>
     </row>
     <row r="19">
@@ -49339,28 +49339,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1384.550579187194</v>
+        <v>1444.399481361796</v>
       </c>
       <c r="AB19" t="n">
-        <v>1894.403184504518</v>
+        <v>1976.291092807025</v>
       </c>
       <c r="AC19" t="n">
-        <v>1713.604003386974</v>
+        <v>1787.676644651492</v>
       </c>
       <c r="AD19" t="n">
-        <v>1384550.579187194</v>
+        <v>1444399.481361796</v>
       </c>
       <c r="AE19" t="n">
-        <v>1894403.184504518</v>
+        <v>1976291.092807025</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.476658504551821e-06</v>
+        <v>2.770790543188528e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.459375</v>
       </c>
       <c r="AH19" t="n">
-        <v>1713604.003386974</v>
+        <v>1787676.644651492</v>
       </c>
     </row>
     <row r="20">
@@ -49445,28 +49445,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1385.691625372092</v>
+        <v>1445.540527546694</v>
       </c>
       <c r="AB20" t="n">
-        <v>1895.9644142341</v>
+        <v>1977.852322536608</v>
       </c>
       <c r="AC20" t="n">
-        <v>1715.016231542365</v>
+        <v>1789.088872806883</v>
       </c>
       <c r="AD20" t="n">
-        <v>1385691.625372092</v>
+        <v>1445540.527546694</v>
       </c>
       <c r="AE20" t="n">
-        <v>1895964.4142341</v>
+        <v>1977852.322536608</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.478289516053987e-06</v>
+        <v>2.773850960497e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.44791666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>1715016.231542365</v>
+        <v>1789088.872806882</v>
       </c>
     </row>
     <row r="21">
@@ -49551,28 +49551,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1390.992758933005</v>
+        <v>1450.841661107607</v>
       </c>
       <c r="AB21" t="n">
-        <v>1903.217659041648</v>
+        <v>1985.105567344155</v>
       </c>
       <c r="AC21" t="n">
-        <v>1721.577236845473</v>
+        <v>1795.649878109991</v>
       </c>
       <c r="AD21" t="n">
-        <v>1390992.758933005</v>
+        <v>1450841.661107607</v>
       </c>
       <c r="AE21" t="n">
-        <v>1903217.659041648</v>
+        <v>1985105.567344155</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.478289516053987e-06</v>
+        <v>2.773850960497e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.44791666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>1721577.236845473</v>
+        <v>1795649.878109991</v>
       </c>
     </row>
     <row r="22">
@@ -49657,28 +49657,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1397.482123293934</v>
+        <v>1457.331025468535</v>
       </c>
       <c r="AB22" t="n">
-        <v>1912.09669365082</v>
+        <v>1993.984601953328</v>
       </c>
       <c r="AC22" t="n">
-        <v>1729.60886885335</v>
+        <v>1803.681510117868</v>
       </c>
       <c r="AD22" t="n">
-        <v>1397482.123293934</v>
+        <v>1457331.025468535</v>
       </c>
       <c r="AE22" t="n">
-        <v>1912096.693650821</v>
+        <v>1993984.601953328</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.478141242281063e-06</v>
+        <v>2.773572740741685e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10.44895833333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>1729608.86885335</v>
+        <v>1803681.510117868</v>
       </c>
     </row>
   </sheetData>
@@ -49954,28 +49954,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>659.6002765982162</v>
+        <v>714.4761830315961</v>
       </c>
       <c r="AB2" t="n">
-        <v>902.4941979521434</v>
+        <v>977.5778340884229</v>
       </c>
       <c r="AC2" t="n">
-        <v>816.3614183581523</v>
+        <v>884.2791776421304</v>
       </c>
       <c r="AD2" t="n">
-        <v>659600.2765982162</v>
+        <v>714476.183031596</v>
       </c>
       <c r="AE2" t="n">
-        <v>902494.1979521434</v>
+        <v>977577.8340884229</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.632020978045732e-06</v>
+        <v>4.081560612784683e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.16041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>816361.4183581523</v>
+        <v>884279.1776421304</v>
       </c>
     </row>
   </sheetData>
@@ -50251,28 +50251,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2465.414441947384</v>
+        <v>2551.840766396107</v>
       </c>
       <c r="AB2" t="n">
-        <v>3373.288805881435</v>
+        <v>3491.54111585252</v>
       </c>
       <c r="AC2" t="n">
-        <v>3051.346856688557</v>
+        <v>3158.313332164157</v>
       </c>
       <c r="AD2" t="n">
-        <v>2465414.441947384</v>
+        <v>2551840.766396107</v>
       </c>
       <c r="AE2" t="n">
-        <v>3373288.805881435</v>
+        <v>3491541.11585252</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.042668869658911e-06</v>
+        <v>2.147150755584405e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.315625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3051346.856688557</v>
+        <v>3158313.332164157</v>
       </c>
     </row>
     <row r="3">
@@ -50357,28 +50357,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1510.036500241453</v>
+        <v>1574.834930741491</v>
       </c>
       <c r="AB3" t="n">
-        <v>2066.098557739077</v>
+        <v>2154.758629054224</v>
       </c>
       <c r="AC3" t="n">
-        <v>1868.913011175997</v>
+        <v>1949.111489720018</v>
       </c>
       <c r="AD3" t="n">
-        <v>1510036.500241453</v>
+        <v>1574834.930741491</v>
       </c>
       <c r="AE3" t="n">
-        <v>2066098.557739077</v>
+        <v>2154758.629054224</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.369268358980418e-06</v>
+        <v>2.819711681374352e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.42395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1868913.011175997</v>
+        <v>1949111.489720018</v>
       </c>
     </row>
     <row r="4">
@@ -50463,28 +50463,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1290.872345495743</v>
+        <v>1355.585435141208</v>
       </c>
       <c r="AB4" t="n">
-        <v>1766.228492375881</v>
+        <v>1854.77179656883</v>
       </c>
       <c r="AC4" t="n">
-        <v>1597.662123980784</v>
+        <v>1677.754979492866</v>
       </c>
       <c r="AD4" t="n">
-        <v>1290872.345495743</v>
+        <v>1355585.435141208</v>
       </c>
       <c r="AE4" t="n">
-        <v>1766228.492375881</v>
+        <v>1854771.79656883</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.482761681519642e-06</v>
+        <v>3.053426603086358e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.47291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1597662.123980784</v>
+        <v>1677754.979492866</v>
       </c>
     </row>
     <row r="5">
@@ -50569,28 +50569,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1186.035861499712</v>
+        <v>1240.105685879978</v>
       </c>
       <c r="AB5" t="n">
-        <v>1622.786589913259</v>
+        <v>1696.767309022637</v>
       </c>
       <c r="AC5" t="n">
-        <v>1467.910115367221</v>
+        <v>1534.830218477391</v>
       </c>
       <c r="AD5" t="n">
-        <v>1186035.861499712</v>
+        <v>1240105.685879978</v>
       </c>
       <c r="AE5" t="n">
-        <v>1622786.589913259</v>
+        <v>1696767.309022637</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.539753292406245e-06</v>
+        <v>3.170788484636704e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.046875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1467910.115367221</v>
+        <v>1534830.218477391</v>
       </c>
     </row>
     <row r="6">
@@ -50675,28 +50675,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1099.762706444498</v>
+        <v>1164.561047435984</v>
       </c>
       <c r="AB6" t="n">
-        <v>1504.743853063735</v>
+        <v>1593.403801909333</v>
       </c>
       <c r="AC6" t="n">
-        <v>1361.133211648593</v>
+        <v>1441.331579411387</v>
       </c>
       <c r="AD6" t="n">
-        <v>1099762.706444498</v>
+        <v>1164561.047435984</v>
       </c>
       <c r="AE6" t="n">
-        <v>1504743.853063735</v>
+        <v>1593403.801909333</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.576005835720932e-06</v>
+        <v>3.245442747399388e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.79270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1361133.211648593</v>
+        <v>1441331.579411387</v>
       </c>
     </row>
     <row r="7">
@@ -50781,28 +50781,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1045.109918222614</v>
+        <v>1109.9082592141</v>
       </c>
       <c r="AB7" t="n">
-        <v>1429.965497107705</v>
+        <v>1518.625445953304</v>
       </c>
       <c r="AC7" t="n">
-        <v>1293.491597032925</v>
+        <v>1373.68996479572</v>
       </c>
       <c r="AD7" t="n">
-        <v>1045109.918222614</v>
+        <v>1109908.2592141</v>
       </c>
       <c r="AE7" t="n">
-        <v>1429965.497107705</v>
+        <v>1518625.445953304</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.597561402016152e-06</v>
+        <v>3.289831768501524e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.64791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1293491.597032925</v>
+        <v>1373689.96479572</v>
       </c>
     </row>
     <row r="8">
@@ -50887,28 +50887,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1036.025336529406</v>
+        <v>1100.823677520892</v>
       </c>
       <c r="AB8" t="n">
-        <v>1417.535571651599</v>
+        <v>1506.195520497197</v>
       </c>
       <c r="AC8" t="n">
-        <v>1282.247966216839</v>
+        <v>1362.446333979634</v>
       </c>
       <c r="AD8" t="n">
-        <v>1036025.336529406</v>
+        <v>1100823.677520892</v>
       </c>
       <c r="AE8" t="n">
-        <v>1417535.571651599</v>
+        <v>1506195.520497197</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.60148059588801e-06</v>
+        <v>3.297902499611004e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.62083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1282247.966216839</v>
+        <v>1362446.333979634</v>
       </c>
     </row>
     <row r="9">
@@ -50993,28 +50993,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1041.141953461944</v>
+        <v>1105.94029445343</v>
       </c>
       <c r="AB9" t="n">
-        <v>1424.536352667905</v>
+        <v>1513.196301513504</v>
       </c>
       <c r="AC9" t="n">
-        <v>1288.580602518607</v>
+        <v>1368.778970281402</v>
       </c>
       <c r="AD9" t="n">
-        <v>1041141.953461944</v>
+        <v>1105940.29445343</v>
       </c>
       <c r="AE9" t="n">
-        <v>1424536.352667905</v>
+        <v>1513196.301513504</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.602786993845296e-06</v>
+        <v>3.300592743314164e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.61354166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1288580.602518607</v>
+        <v>1368778.970281402</v>
       </c>
     </row>
   </sheetData>
@@ -51290,28 +51290,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3574.247505688182</v>
+        <v>3686.775238121346</v>
       </c>
       <c r="AB2" t="n">
-        <v>4890.443121953976</v>
+        <v>5044.408529842226</v>
       </c>
       <c r="AC2" t="n">
-        <v>4423.706094174534</v>
+        <v>4562.977259625732</v>
       </c>
       <c r="AD2" t="n">
-        <v>3574247.505688182</v>
+        <v>3686775.238121346</v>
       </c>
       <c r="AE2" t="n">
-        <v>4890443.121953975</v>
+        <v>5044408.529842226</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.68340705487381e-07</v>
+        <v>1.720342809325891e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.86041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4423706.094174534</v>
+        <v>4562977.259625732</v>
       </c>
     </row>
     <row r="3">
@@ -51396,28 +51396,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1917.628779898939</v>
+        <v>1996.287338999761</v>
       </c>
       <c r="AB3" t="n">
-        <v>2623.784296468742</v>
+        <v>2731.408407201202</v>
       </c>
       <c r="AC3" t="n">
-        <v>2373.374005718153</v>
+        <v>2470.726622373696</v>
       </c>
       <c r="AD3" t="n">
-        <v>1917628.779898939</v>
+        <v>1996287.338999761</v>
       </c>
       <c r="AE3" t="n">
-        <v>2623784.296468742</v>
+        <v>2731408.407201203</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.240329499473103e-06</v>
+        <v>2.457321097731659e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2373374.005718153</v>
+        <v>2470726.622373695</v>
       </c>
     </row>
     <row r="4">
@@ -51502,28 +51502,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1596.440763715523</v>
+        <v>1675.099233307795</v>
       </c>
       <c r="AB4" t="n">
-        <v>2184.320682911374</v>
+        <v>2291.944671174286</v>
       </c>
       <c r="AC4" t="n">
-        <v>1975.852182647645</v>
+        <v>2073.204688521962</v>
       </c>
       <c r="AD4" t="n">
-        <v>1596440.763715523</v>
+        <v>1675099.233307795</v>
       </c>
       <c r="AE4" t="n">
-        <v>2184320.682911374</v>
+        <v>2291944.671174286</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.369723741844299e-06</v>
+        <v>2.713674914873648e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.95625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1975852.182647645</v>
+        <v>2073204.688521961</v>
       </c>
     </row>
     <row r="5">
@@ -51608,28 +51608,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1459.412478536394</v>
+        <v>1526.809730308444</v>
       </c>
       <c r="AB5" t="n">
-        <v>1996.832537868002</v>
+        <v>2089.048431099418</v>
       </c>
       <c r="AC5" t="n">
-        <v>1806.257643025948</v>
+        <v>1889.672580833177</v>
       </c>
       <c r="AD5" t="n">
-        <v>1459412.478536394</v>
+        <v>1526809.730308444</v>
       </c>
       <c r="AE5" t="n">
-        <v>1996832.537868002</v>
+        <v>2089048.431099419</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.43701503678339e-06</v>
+        <v>2.846991359268267e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.396875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1806257.643025948</v>
+        <v>1889672.580833177</v>
       </c>
     </row>
     <row r="6">
@@ -51714,28 +51714,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1375.127745201712</v>
+        <v>1431.434371354131</v>
       </c>
       <c r="AB6" t="n">
-        <v>1881.510447339485</v>
+        <v>1958.551657314253</v>
       </c>
       <c r="AC6" t="n">
-        <v>1701.941730961902</v>
+        <v>1771.630235984695</v>
       </c>
       <c r="AD6" t="n">
-        <v>1375127.745201712</v>
+        <v>1431434.371354131</v>
       </c>
       <c r="AE6" t="n">
-        <v>1881510.447339485</v>
+        <v>1958551.657314253</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.47789292623237e-06</v>
+        <v>2.927977984367802e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.08229166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1701941.730961902</v>
+        <v>1771630.235984695</v>
       </c>
     </row>
     <row r="7">
@@ -51820,28 +51820,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1302.515190136788</v>
+        <v>1369.997693254858</v>
       </c>
       <c r="AB7" t="n">
-        <v>1782.158746059814</v>
+        <v>1874.49128394388</v>
       </c>
       <c r="AC7" t="n">
-        <v>1612.072016611375</v>
+        <v>1695.592466669316</v>
       </c>
       <c r="AD7" t="n">
-        <v>1302515.190136788</v>
+        <v>1369997.693254858</v>
       </c>
       <c r="AE7" t="n">
-        <v>1782158.746059814</v>
+        <v>1874491.28394388</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.505564112936296e-06</v>
+        <v>2.982799699819795e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.878125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1612072.016611375</v>
+        <v>1695592.466669316</v>
       </c>
     </row>
     <row r="8">
@@ -51926,28 +51926,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1249.060195502627</v>
+        <v>1316.542698620697</v>
       </c>
       <c r="AB8" t="n">
-        <v>1709.01926413343</v>
+        <v>1801.351802017496</v>
       </c>
       <c r="AC8" t="n">
-        <v>1545.912864188137</v>
+        <v>1629.433314246078</v>
       </c>
       <c r="AD8" t="n">
-        <v>1249060.195502627</v>
+        <v>1316542.698620697</v>
       </c>
       <c r="AE8" t="n">
-        <v>1709019.26413343</v>
+        <v>1801351.802017496</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.527260838874601e-06</v>
+        <v>3.025784908526471e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.72291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1545912.864188137</v>
+        <v>1629433.314246078</v>
       </c>
     </row>
     <row r="9">
@@ -52032,28 +52032,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1211.857024314477</v>
+        <v>1279.339527432546</v>
       </c>
       <c r="AB9" t="n">
-        <v>1658.116244025726</v>
+        <v>1750.448781909792</v>
       </c>
       <c r="AC9" t="n">
-        <v>1499.867956876674</v>
+        <v>1583.388406934616</v>
       </c>
       <c r="AD9" t="n">
-        <v>1211857.024314477</v>
+        <v>1279339.527432546</v>
       </c>
       <c r="AE9" t="n">
-        <v>1658116.244025726</v>
+        <v>1750448.781909792</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.53826642449548e-06</v>
+        <v>3.047588999899423e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.646875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1499867.956876674</v>
+        <v>1583388.406934616</v>
       </c>
     </row>
     <row r="10">
@@ -52138,28 +52138,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1172.688833565871</v>
+        <v>1240.171336683941</v>
       </c>
       <c r="AB10" t="n">
-        <v>1604.524597464862</v>
+        <v>1696.857135348928</v>
       </c>
       <c r="AC10" t="n">
-        <v>1451.391021847232</v>
+        <v>1534.911471905173</v>
       </c>
       <c r="AD10" t="n">
-        <v>1172688.833565871</v>
+        <v>1240171.336683941</v>
       </c>
       <c r="AE10" t="n">
-        <v>1604524.597464862</v>
+        <v>1696857.135348928</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.550372568678447e-06</v>
+        <v>3.07157350040967e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.56354166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1451391.021847232</v>
+        <v>1534911.471905173</v>
       </c>
     </row>
     <row r="11">
@@ -52244,28 +52244,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1153.544848773402</v>
+        <v>1209.936726271842</v>
       </c>
       <c r="AB11" t="n">
-        <v>1578.330952898804</v>
+        <v>1655.488807526222</v>
       </c>
       <c r="AC11" t="n">
-        <v>1427.697261955547</v>
+        <v>1497.491279229053</v>
       </c>
       <c r="AD11" t="n">
-        <v>1153544.848773402</v>
+        <v>1209936.726271842</v>
       </c>
       <c r="AE11" t="n">
-        <v>1578330.952898804</v>
+        <v>1655488.807526222</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.556189806792341e-06</v>
+        <v>3.083098520135373e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.52395833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1427697.261955547</v>
+        <v>1497491.279229053</v>
       </c>
     </row>
     <row r="12">
@@ -52350,28 +52350,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1157.864107866353</v>
+        <v>1214.255985364792</v>
       </c>
       <c r="AB12" t="n">
-        <v>1584.240753742042</v>
+        <v>1661.39860836946</v>
       </c>
       <c r="AC12" t="n">
-        <v>1433.043039700764</v>
+        <v>1502.83705697427</v>
       </c>
       <c r="AD12" t="n">
-        <v>1157864.107866353</v>
+        <v>1214255.985364792</v>
       </c>
       <c r="AE12" t="n">
-        <v>1584240.753742042</v>
+        <v>1661398.60836946</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.556189806792341e-06</v>
+        <v>3.083098520135373e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.52395833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1433043.039700764</v>
+        <v>1502837.05697427</v>
       </c>
     </row>
   </sheetData>
